--- a/data/MBP.xlsx
+++ b/data/MBP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\R\IHC\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\LT-AoP-22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA246F34-6985-4A3A-8B8E-11B99FD25773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0676ED-6378-4CA7-9187-632D95EFF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mbp" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="263">
   <si>
     <t>DA1N coupe 1 L1</t>
   </si>
@@ -816,13 +816,19 @@
   </si>
   <si>
     <t>Angle_Fil</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>P60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,8 +844,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,18 +866,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -882,26 +888,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,20 +900,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,4928 +1188,5698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="L255" sqref="L255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.53515625" customWidth="1"/>
-    <col min="2" max="4" width="11.3828125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.15234375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>34486.1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>9524.7900000000009</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>11728.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="5">
         <v>553</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="5">
         <v>26855.868709999984</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>43998.9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>13110.6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>13735.8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="5">
         <v>779</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="5">
         <v>36236.316373000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>42798.8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>13096.2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>13448.3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="5">
         <v>672</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="5">
         <v>33246.669505999969</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>28975.8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>9659.7999999999993</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>8178.04</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="5">
         <v>568</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="5">
         <v>30536.491911000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>50671.8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>16278.6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>14797.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="5">
         <v>889</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="5">
         <v>47446.570896199941</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="5">
         <v>48183.4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>13978.9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>15584.9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="5">
         <v>789</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="5">
         <v>42413.079165299954</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>43811.9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>14774.6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>11959.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="5">
         <v>875</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="5">
         <v>48415.338636</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>38062.6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>12199.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>11306.9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="5">
         <v>768</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="5">
         <v>41249.949720299941</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="5">
         <v>30169.4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>10744.6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>7865.55</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="5">
         <v>652</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="5">
         <v>34805.734646999983</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
         <v>42533.1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>12911.2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>13211.9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="5">
         <v>766</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="5">
         <v>41588.384261000057</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>52214.3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>16506.099999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>15675</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="5">
         <v>972</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="5">
         <v>52494.512606000062</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="5">
         <v>34751</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>12812.7</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>8873.66</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="5">
         <v>784</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="5">
         <v>44302.837843000052</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C14" s="5">
         <v>31348.5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>10959.3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>8526.43</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="5">
         <v>717</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="5">
         <v>41415.388175999979</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="C15" s="5">
         <v>46028.6</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>14510.3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>13861.9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="5">
         <v>766</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="5">
         <v>41761.405426999983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C16" s="5">
         <v>30917.5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>9344.3700000000008</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>9790.5400000000009</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="5">
         <v>504</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="5">
         <v>22389.059843999967</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="C17" s="5">
         <v>21911</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>6685.4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>6876.23</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="5">
         <v>326</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="5">
         <v>15884.823321999995</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C18" s="5">
         <v>27981.4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>8273.39</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>8862.73</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="5">
         <v>509</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="5">
         <v>25974.084919999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C19" s="5">
         <v>30626.7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>10821.9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>8333.68</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="5">
         <v>593</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="5">
         <v>31172.677027000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="C20" s="5">
         <v>40194.699999999997</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>12959.9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>11739.1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="5">
         <v>688</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="5">
         <v>35974.204694999964</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C21" s="5">
         <v>38915.5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>13104.6</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>10942.6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="5">
         <v>749</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="5">
         <v>39525.247889999984</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="C22" s="5">
         <v>29368.5</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>11524.6</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>6952.09</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="5">
         <v>571</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="5">
         <v>30177.466952600022</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C23" s="5">
         <v>29368.5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>10542.9</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>6800.86</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="5">
         <v>510</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="5">
         <v>27951.624693000012</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="C24" s="5">
         <v>32631.9</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>11892</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>8554.44</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="5">
         <v>587</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="5">
         <v>30029.891168499962</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="C25" s="5">
         <v>30454.9</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>10990.4</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>7992.2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="5">
         <v>574</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="5">
         <v>29419.594360000006</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="C26" s="5">
         <v>43586.2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>13027.9</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>13747.8</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="5">
         <v>774</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="5">
         <v>42561.253270999943</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="C27" s="5">
         <v>26975.3</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>9303.49</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>7176.25</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="5">
         <v>514</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="5">
         <v>28361.909360000016</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="C28" s="5">
         <v>26244</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>9083.14</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>7192.33</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="5">
         <v>495</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="5">
         <v>26054.600760999991</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="C30" s="5">
         <v>32408.5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>12548.7</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>8131.5</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="5">
         <v>816</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="5">
         <v>51499.48455700004</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="C31" s="5">
         <v>31751</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>12927.7</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>7457.42</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="5">
         <v>939</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="5">
         <v>59647.87574999989</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="C32" s="5">
         <v>57656.4</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>23857.7</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>13217.4</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="5">
         <v>1627</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="5">
         <v>69671.606896999961</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="C34" s="5">
         <v>56581.5</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>15797.3</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>18688.5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="5">
         <v>1003</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="5">
         <v>49487.197367000124</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="C35" s="5">
         <v>38677</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>13299.3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>10146.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="5">
         <v>767</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="5">
         <v>42932.64872969994</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="C36" s="5">
         <v>34164.699999999997</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>11388</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>9933.69</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="5">
         <v>645</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="5">
         <v>33897.969448000011</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="C38" s="5">
         <v>28146.799999999999</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>10160.799999999999</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>7443.02</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="5">
         <v>488</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="5">
         <v>28861.566094500013</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="C39" s="5">
         <v>15003.3</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>5547.72</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>3870.73</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="5">
         <v>304</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="5">
         <v>17483.42532100001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="C40" s="5">
         <v>40553.1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>15189.8</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>10573.4</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="5">
         <v>845</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="5">
         <v>47783.484962999959</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="C42" s="5">
         <v>20712.3</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="5">
         <v>6226.6</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <v>6661.27</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="5">
         <v>366</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="5">
         <v>22740.860398999987</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="C43" s="5">
         <v>28172.7</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>9167.0300000000007</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>8162.29</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="5">
         <v>490</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="5">
         <v>26209.423306000019</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="C44" s="5">
         <v>37076.199999999997</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>11855.7</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>10916.1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="5">
         <v>615</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="5">
         <v>29998.117587999972</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="C46" s="5">
         <v>16130.1</v>
       </c>
-      <c r="C46" s="5">
+      <c r="D46" s="5">
         <v>5230.28</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <v>4644.0600000000004</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="5">
         <v>221</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="5">
         <v>13098.701186999993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="C47" s="5">
         <v>27593.1</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
         <v>8615.61</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>8466.99</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="5">
         <v>265</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="5">
         <v>15018.175139999996</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
+      <c r="C48" s="5">
         <v>50596</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>17605.599999999999</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>14052.3</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="5">
         <v>1030</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="5">
         <v>55214.510262000062</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
+      <c r="C50" s="5">
         <v>36498.699999999997</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="5">
         <v>12079.8</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>10549.1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="5">
         <v>720</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="5">
         <v>38713.007128999969</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="C51" s="5">
         <v>57158.7</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5">
         <v>17988.099999999999</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>17368.7</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="5">
         <v>1047</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="5">
         <v>54228.661629000038</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="C52" s="5">
         <v>26333.7</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="5">
         <v>8197.92</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>8198.2199999999993</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="5">
         <v>490</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="5">
         <v>26354.343889399988</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="C53" s="5">
         <v>93365</v>
       </c>
-      <c r="C53" s="5">
+      <c r="D53" s="5">
         <v>28132.3</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>30038.5</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="5">
         <v>1923</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="5">
         <v>66967.78593579997</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
+      <c r="C54" s="5">
         <v>38330.5</v>
       </c>
-      <c r="C54" s="5">
+      <c r="D54" s="5">
         <v>12738.1</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <v>10699.8</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="5">
         <v>788</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="5">
         <v>46319.388708999992</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
+      <c r="C55" s="5">
         <v>33747.300000000003</v>
       </c>
-      <c r="C55" s="5">
+      <c r="D55" s="5">
         <v>11702.5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <v>9413.19</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="5">
         <v>690</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="5">
         <v>42705.423975999969</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="C56" s="5">
         <v>17133.8</v>
       </c>
-      <c r="C56" s="5">
+      <c r="D56" s="5">
         <v>5421.97</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
         <v>5252.73</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="5">
         <v>285</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="5">
         <v>15104.604628000006</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
+      <c r="C57" s="5">
         <v>51734.400000000001</v>
       </c>
-      <c r="C57" s="5">
+      <c r="D57" s="5">
         <v>14854</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
         <v>17052.2</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="5">
         <v>958</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="5">
         <v>51922.182475000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="C58" s="5">
         <v>40243.9</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="5">
         <v>13983.5</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <v>10558.8</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="5">
         <v>798</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="5">
         <v>47079.948170400028</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
+      <c r="C59" s="5">
         <v>49228.7</v>
       </c>
-      <c r="C59" s="5">
+      <c r="D59" s="5">
         <v>15310.1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>14782.4</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="5">
         <v>912</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="5">
         <v>49880.626503</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
+      <c r="C60" s="5">
         <v>35501.199999999997</v>
       </c>
-      <c r="C60" s="5">
+      <c r="D60" s="5">
         <v>13954.1</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>8414.84</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="5">
         <v>889</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="5">
         <v>45599.339338899939</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
+      <c r="C61" s="5">
         <v>75063.399999999994</v>
       </c>
-      <c r="C61" s="5">
+      <c r="D61" s="5">
         <v>33402.6</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
         <v>14760.4</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="5">
         <v>2154</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="5">
         <v>67450.635794000089</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
+      <c r="C62" s="5">
         <v>44225.599999999999</v>
       </c>
-      <c r="C62" s="5">
+      <c r="D62" s="5">
         <v>18758.7</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
         <v>9204.2000000000007</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="5">
         <v>1197</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="5">
         <v>73471.918864000123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
+      <c r="C63" s="5">
         <v>74936.100000000006</v>
       </c>
-      <c r="C63" s="5">
+      <c r="D63" s="5">
         <v>24013</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="5">
         <v>21926.9</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="5">
         <v>1573</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="5">
         <v>65148.948371999992</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
+      <c r="C64" s="5">
         <v>43130.5</v>
       </c>
-      <c r="C64" s="5">
+      <c r="D64" s="5">
         <v>15555.3</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
         <v>11379.5</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="5">
         <v>1082</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="5">
         <v>58336.977065999985</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="6">
+      <c r="C65" s="6">
         <v>31653.9</v>
       </c>
-      <c r="C65" s="6">
+      <c r="D65" s="6">
         <v>13309.3</v>
       </c>
-      <c r="D65" s="6">
+      <c r="E65" s="6">
         <v>7076.26</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="6">
         <v>874</v>
       </c>
-      <c r="F65" s="8">
+      <c r="G65" s="6">
         <v>51677.557368000016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="5">
+      <c r="C66" s="5">
         <v>52598.8</v>
       </c>
-      <c r="C66" s="5">
+      <c r="D66" s="5">
         <v>14461.4</v>
       </c>
-      <c r="D66" s="5">
+      <c r="E66" s="5">
         <v>18104.2</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="5">
         <v>930</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="5">
         <v>46942.248373000031</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="5">
+      <c r="C67" s="5">
         <v>39192.300000000003</v>
       </c>
-      <c r="C67" s="5">
+      <c r="D67" s="5">
         <v>11770.8</v>
       </c>
-      <c r="D67" s="5">
+      <c r="E67" s="5">
         <v>12185.5</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="5">
         <v>725</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="5">
         <v>40611.322574999969</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="5">
+      <c r="C68" s="5">
         <v>29097.4</v>
       </c>
-      <c r="C68" s="5">
+      <c r="D68" s="5">
         <v>9202.61</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E68" s="5">
         <v>8446.43</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="5">
         <v>571</v>
       </c>
-      <c r="F68" s="7">
+      <c r="G68" s="5">
         <v>32375.80037600005</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="5">
+      <c r="C69" s="5">
         <v>33157.599999999999</v>
       </c>
-      <c r="C69" s="5">
+      <c r="D69" s="5">
         <v>9672.52</v>
       </c>
-      <c r="D69" s="5">
+      <c r="E69" s="5">
         <v>10482</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="5">
         <v>636</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G69" s="5">
         <v>33323.550794999966</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="5">
+      <c r="C70" s="5">
         <v>49118.6</v>
       </c>
-      <c r="C70" s="5">
+      <c r="D70" s="5">
         <v>14963</v>
       </c>
-      <c r="D70" s="5">
+      <c r="E70" s="5">
         <v>15107.2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="5">
         <v>933</v>
       </c>
-      <c r="F70" s="7">
+      <c r="G70" s="5">
         <v>52555.875265999937</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="5">
+      <c r="C71" s="5">
         <v>33898.9</v>
       </c>
-      <c r="C71" s="5">
+      <c r="D71" s="5">
         <v>9257.34</v>
       </c>
-      <c r="D71" s="5">
+      <c r="E71" s="5">
         <v>11654.8</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="5">
         <v>606</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="5">
         <v>31460.067431000014</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="5">
+      <c r="C72" s="5">
         <v>36622.199999999997</v>
       </c>
-      <c r="C72" s="5">
+      <c r="D72" s="5">
         <v>10035.4</v>
       </c>
-      <c r="D72" s="5">
+      <c r="E72" s="5">
         <v>12830</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="5">
         <v>664</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="5">
         <v>32982.604945000021</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="5">
+      <c r="C73" s="5">
         <v>29029.599999999999</v>
       </c>
-      <c r="C73" s="5">
+      <c r="D73" s="5">
         <v>8980.76</v>
       </c>
-      <c r="D73" s="5">
+      <c r="E73" s="5">
         <v>8754.5499999999993</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="5">
         <v>581</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G73" s="5">
         <v>31410.139293300024</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="5">
+      <c r="C74" s="5">
         <v>33685.599999999999</v>
       </c>
-      <c r="C74" s="5">
+      <c r="D74" s="5">
         <v>11119.7</v>
       </c>
-      <c r="D74" s="5">
+      <c r="E74" s="5">
         <v>9608.52</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="5">
         <v>625</v>
       </c>
-      <c r="F74" s="7">
+      <c r="G74" s="5">
         <v>35341.681830999943</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="5">
+      <c r="C75" s="5">
         <v>43615.4</v>
       </c>
-      <c r="C75" s="5">
+      <c r="D75" s="5">
         <v>17507.2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="E75" s="5">
         <v>10159.1</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="5">
         <v>1046</v>
       </c>
-      <c r="F75" s="7">
+      <c r="G75" s="5">
         <v>60977.751716999977</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="5">
+      <c r="C76" s="5">
         <v>35539.300000000003</v>
       </c>
-      <c r="C76" s="5">
+      <c r="D76" s="5">
         <v>13892.7</v>
       </c>
-      <c r="D76" s="5">
+      <c r="E76" s="5">
         <v>8395.07</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="5">
         <v>842</v>
       </c>
-      <c r="F76" s="7">
+      <c r="G76" s="5">
         <v>50139.561406999957</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="5">
+      <c r="C77" s="5">
         <v>23377.5</v>
       </c>
-      <c r="C77" s="5">
+      <c r="D77" s="5">
         <v>9884.61</v>
       </c>
-      <c r="D77" s="5">
+      <c r="E77" s="5">
         <v>5153.8500000000004</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="5">
         <v>584</v>
       </c>
-      <c r="F77" s="7">
+      <c r="G77" s="5">
         <v>34148.020262999977</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="5">
+      <c r="C78" s="5">
         <v>32506.2</v>
       </c>
-      <c r="C78" s="5">
+      <c r="D78" s="5">
         <v>11859.5</v>
       </c>
-      <c r="D78" s="5">
+      <c r="E78" s="5">
         <v>8175.93</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="5">
         <v>644</v>
       </c>
-      <c r="F78" s="7">
+      <c r="G78" s="5">
         <v>35095.486531000024</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="5">
+      <c r="C79" s="5">
         <v>65741.5</v>
       </c>
-      <c r="C79" s="5">
+      <c r="D79" s="5">
         <v>24003.9</v>
       </c>
-      <c r="D79" s="5">
+      <c r="E79" s="5">
         <v>16382.6</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="5">
         <v>1424</v>
       </c>
-      <c r="F79" s="7">
+      <c r="G79" s="5">
         <v>71738.142483600022</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="5">
+      <c r="C80" s="5">
         <v>44210.6</v>
       </c>
-      <c r="C80" s="5">
+      <c r="D80" s="5">
         <v>16645.7</v>
       </c>
-      <c r="D80" s="5">
+      <c r="E80" s="5">
         <v>10664.2</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="5">
         <v>908</v>
       </c>
-      <c r="F80" s="7">
+      <c r="G80" s="5">
         <v>50128.351453999989</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="5">
+      <c r="C81" s="5">
         <v>29867.9</v>
       </c>
-      <c r="C81" s="5">
+      <c r="D81" s="5">
         <v>11030.5</v>
       </c>
-      <c r="D81" s="5">
+      <c r="E81" s="5">
         <v>7398.56</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="5">
         <v>591</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G81" s="5">
         <v>35269.404827299957</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="5">
+      <c r="C82" s="5">
         <v>30066.400000000001</v>
       </c>
-      <c r="C82" s="5">
+      <c r="D82" s="5">
         <v>8901.43</v>
       </c>
-      <c r="D82" s="5">
+      <c r="E82" s="5">
         <v>9440.7999999999993</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="5">
         <v>482</v>
       </c>
-      <c r="F82" s="7">
+      <c r="G82" s="5">
         <v>23802.311727999964</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="5">
+      <c r="C83" s="5">
         <v>43001.2</v>
       </c>
-      <c r="C83" s="5">
+      <c r="D83" s="5">
         <v>12751.2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="E83" s="5">
         <v>13347.9</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="5">
         <v>704</v>
       </c>
-      <c r="F83" s="7">
+      <c r="G83" s="5">
         <v>36313.781963999973</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="5">
+      <c r="C84" s="5">
         <v>30541.1</v>
       </c>
-      <c r="C84" s="5">
+      <c r="D84" s="5">
         <v>11841.2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="E84" s="5">
         <v>7284.24</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="5">
         <v>686</v>
       </c>
-      <c r="F84" s="7">
+      <c r="G84" s="5">
         <v>35306.395338299953</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="5">
+      <c r="C85" s="5">
         <v>33843.800000000003</v>
       </c>
-      <c r="C85" s="5">
+      <c r="D85" s="5">
         <v>10572.3</v>
       </c>
-      <c r="D85" s="5">
+      <c r="E85" s="5">
         <v>10037</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="5">
         <v>592</v>
       </c>
-      <c r="F85" s="7">
+      <c r="G85" s="5">
         <v>30687.089936999964</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="5">
+      <c r="C86" s="5">
         <v>48170.400000000001</v>
       </c>
-      <c r="C86" s="5">
+      <c r="D86" s="5">
         <v>14809.1</v>
       </c>
-      <c r="D86" s="5">
+      <c r="E86" s="5">
         <v>14422.6</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="5">
         <v>785</v>
       </c>
-      <c r="F86" s="7">
+      <c r="G86" s="5">
         <v>39869.904093000056</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="5">
+      <c r="C87" s="5">
         <v>36691.4</v>
       </c>
-      <c r="C87" s="5">
+      <c r="D87" s="5">
         <v>11680.8</v>
       </c>
-      <c r="D87" s="5">
+      <c r="E87" s="5">
         <v>10745.8</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="5">
         <v>681</v>
       </c>
-      <c r="F87" s="7">
+      <c r="G87" s="5">
         <v>36198.320382300022</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="5">
+      <c r="C88" s="5">
         <v>30077.200000000001</v>
       </c>
-      <c r="C88" s="5">
+      <c r="D88" s="5">
         <v>9166.9599999999991</v>
       </c>
-      <c r="D88" s="5">
+      <c r="E88" s="5">
         <v>9266.67</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="5">
         <v>487</v>
       </c>
-      <c r="F88" s="7">
+      <c r="G88" s="5">
         <v>24581.76138099996</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="5">
+      <c r="C89" s="5">
         <v>51369.8</v>
       </c>
-      <c r="C89" s="5">
+      <c r="D89" s="5">
         <v>16014.3</v>
       </c>
-      <c r="D89" s="5">
+      <c r="E89" s="5">
         <v>15088.4</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="5">
         <v>929</v>
       </c>
-      <c r="F89" s="7">
+      <c r="G89" s="5">
         <v>47855.965265499959</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="5">
+      <c r="C90" s="5">
         <v>27379.200000000001</v>
       </c>
-      <c r="C90" s="5">
+      <c r="D90" s="5">
         <v>11146.7</v>
       </c>
-      <c r="D90" s="5">
+      <c r="E90" s="5">
         <v>6045.39</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="5">
         <v>711</v>
       </c>
-      <c r="F90" s="7">
+      <c r="G90" s="5">
         <v>39880.724252000015</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="5">
+      <c r="C91" s="5">
         <v>35771.300000000003</v>
       </c>
-      <c r="C91" s="5">
+      <c r="D91" s="5">
         <v>15428.2</v>
       </c>
-      <c r="D91" s="5">
+      <c r="E91" s="5">
         <v>7394.29</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="5">
         <v>977</v>
       </c>
-      <c r="F91" s="7">
+      <c r="G91" s="5">
         <v>57521.165088000016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="5">
+      <c r="C92" s="5">
         <v>26831.9</v>
       </c>
-      <c r="C92" s="5">
+      <c r="D92" s="5">
         <v>11793</v>
       </c>
-      <c r="D92" s="5">
+      <c r="E92" s="5">
         <v>5562.32</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="5">
         <v>612</v>
       </c>
-      <c r="F92" s="7">
+      <c r="G92" s="5">
         <v>35745.570995999973</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="5">
+      <c r="C94" s="5">
         <v>47819</v>
       </c>
-      <c r="C94" s="5">
+      <c r="D94" s="5">
         <v>18344.099999999999</v>
       </c>
-      <c r="D94" s="5">
+      <c r="E94" s="5">
         <v>11279.1</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="5">
         <v>1201</v>
       </c>
-      <c r="F94" s="7">
+      <c r="G94" s="5">
         <v>72140.029592999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="5">
+      <c r="C95" s="5">
         <v>33375</v>
       </c>
-      <c r="C95" s="5">
+      <c r="D95" s="5">
         <v>13872.6</v>
       </c>
-      <c r="D95" s="5">
+      <c r="E95" s="5">
         <v>7231.16</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="5">
         <v>914</v>
       </c>
-      <c r="F95" s="7">
+      <c r="G95" s="5">
         <v>51125.842587000079</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="6">
+      <c r="C96" s="6">
         <v>74141.2</v>
       </c>
-      <c r="C96" s="6">
+      <c r="D96" s="6">
         <v>31382.5</v>
       </c>
-      <c r="D96" s="6">
+      <c r="E96" s="6">
         <v>15663.2</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96" s="6">
         <v>2039</v>
       </c>
-      <c r="F96" s="8">
+      <c r="G96" s="6">
         <v>66416.975373999943</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
         <v>64</v>
       </c>
-      <c r="B97" s="5">
+      <c r="C97" s="5">
         <v>40348.300000000003</v>
       </c>
-      <c r="C97" s="5">
+      <c r="D97" s="5">
         <v>13879</v>
       </c>
-      <c r="D97" s="5">
+      <c r="E97" s="5">
         <v>10785</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="5">
         <v>820</v>
       </c>
-      <c r="F97" s="7">
+      <c r="G97" s="5">
         <v>46699.111703299939</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" t="s">
         <v>65</v>
       </c>
-      <c r="B98" s="5">
+      <c r="C98" s="5">
         <v>17674</v>
       </c>
-      <c r="C98" s="5">
+      <c r="D98" s="5">
         <v>5817.51</v>
       </c>
-      <c r="D98" s="5">
+      <c r="E98" s="5">
         <v>4952.49</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="5">
         <v>322</v>
       </c>
-      <c r="F98" s="7">
+      <c r="G98" s="5">
         <v>17835.970864999996</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
         <v>66</v>
       </c>
-      <c r="B99" s="5">
+      <c r="C99" s="5">
         <v>35569.9</v>
       </c>
-      <c r="C99" s="5">
+      <c r="D99" s="5">
         <v>11749.8</v>
       </c>
-      <c r="D99" s="5">
+      <c r="E99" s="5">
         <v>10063.6</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="5">
         <v>656</v>
       </c>
-      <c r="F99" s="7">
+      <c r="G99" s="5">
         <v>34174.808282899969</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="5">
+      <c r="C100" s="5">
         <v>56224.800000000003</v>
       </c>
-      <c r="C100" s="5">
+      <c r="D100" s="5">
         <v>16893.7</v>
       </c>
-      <c r="D100" s="5">
+      <c r="E100" s="5">
         <v>17438.599999999999</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="5">
         <v>1009</v>
       </c>
-      <c r="F100" s="7">
+      <c r="G100" s="5">
         <v>50833.395862999998</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="5">
+      <c r="C101" s="5">
         <v>32920.300000000003</v>
       </c>
-      <c r="C101" s="5">
+      <c r="D101" s="5">
         <v>11457.8</v>
       </c>
-      <c r="D101" s="5">
+      <c r="E101" s="5">
         <v>8762.7199999999993</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="5">
         <v>578</v>
       </c>
-      <c r="F101" s="7">
+      <c r="G101" s="5">
         <v>31411.362429000004</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="5">
+      <c r="C102" s="5">
         <v>32704</v>
       </c>
-      <c r="C102" s="5">
+      <c r="D102" s="5">
         <v>10439.700000000001</v>
       </c>
-      <c r="D102" s="5">
+      <c r="E102" s="5">
         <v>9417.2999999999993</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="5">
         <v>625</v>
       </c>
-      <c r="F102" s="7">
+      <c r="G102" s="5">
         <v>31920.204148000052</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" t="s">
         <v>70</v>
       </c>
-      <c r="B103" s="5">
+      <c r="C103" s="5">
         <v>19561.2</v>
       </c>
-      <c r="C103" s="5">
+      <c r="D103" s="5">
         <v>6449.67</v>
       </c>
-      <c r="D103" s="5">
+      <c r="E103" s="5">
         <v>5547.14</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="5">
         <v>365</v>
       </c>
-      <c r="F103" s="7">
+      <c r="G103" s="5">
         <v>18908.048459999995</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="5">
+      <c r="C104" s="5">
         <v>41387.199999999997</v>
       </c>
-      <c r="C104" s="5">
+      <c r="D104" s="5">
         <v>12775.3</v>
       </c>
-      <c r="D104" s="5">
+      <c r="E104" s="5">
         <v>12440.4</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="5">
         <v>754</v>
       </c>
-      <c r="F104" s="7">
+      <c r="G104" s="5">
         <v>41006.347018000008</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
         <v>72</v>
       </c>
-      <c r="B105" s="5">
+      <c r="C105" s="5">
         <v>26782.3</v>
       </c>
-      <c r="C105" s="5">
+      <c r="D105" s="5">
         <v>9423.7900000000009</v>
       </c>
-      <c r="D105" s="5">
+      <c r="E105" s="5">
         <v>6939.27</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="5">
         <v>548</v>
       </c>
-      <c r="F105" s="7">
+      <c r="G105" s="5">
         <v>30328.250261300003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="5">
+      <c r="C106" s="5">
         <v>28780</v>
       </c>
-      <c r="C106" s="5">
+      <c r="D106" s="5">
         <v>9578.7000000000007</v>
       </c>
-      <c r="D106" s="5">
+      <c r="E106" s="5">
         <v>7913.1</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="5">
         <v>503</v>
       </c>
-      <c r="F106" s="7">
+      <c r="G106" s="5">
         <v>26464.918454999977</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="5">
+      <c r="C107" s="5">
         <v>36441.5</v>
       </c>
-      <c r="C107" s="5">
+      <c r="D107" s="5">
         <v>11605.3</v>
       </c>
-      <c r="D107" s="5">
+      <c r="E107" s="5">
         <v>10604.9</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="5">
         <v>678</v>
       </c>
-      <c r="F107" s="7">
+      <c r="G107" s="5">
         <v>37092.005063000019</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="5">
+      <c r="C108" s="5">
         <v>25008.3</v>
       </c>
-      <c r="C108" s="5">
+      <c r="D108" s="5">
         <v>8365.23</v>
       </c>
-      <c r="D108" s="5">
+      <c r="E108" s="5">
         <v>6805.35</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="5">
         <v>482</v>
       </c>
-      <c r="F108" s="7">
+      <c r="G108" s="5">
         <v>27238.630400000016</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="5">
+      <c r="C109" s="5">
         <v>47645.5</v>
       </c>
-      <c r="C109" s="5">
+      <c r="D109" s="5">
         <v>16199.8</v>
       </c>
-      <c r="D109" s="5">
+      <c r="E109" s="5">
         <v>12944.4</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="5">
         <v>1061</v>
       </c>
-      <c r="F109" s="7">
+      <c r="G109" s="5">
         <v>58803.73888599997</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" t="s">
         <v>77</v>
       </c>
-      <c r="B110" s="5">
+      <c r="C110" s="5">
         <v>32097.8</v>
       </c>
-      <c r="C110" s="5">
+      <c r="D110" s="5">
         <v>10309</v>
       </c>
-      <c r="D110" s="5">
+      <c r="E110" s="5">
         <v>9139.7000000000007</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="5">
         <v>597</v>
       </c>
-      <c r="F110" s="7">
+      <c r="G110" s="5">
         <v>33152.042082000036</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" t="s">
         <v>78</v>
       </c>
-      <c r="B111" s="5">
+      <c r="C111" s="5">
         <v>31564.7</v>
       </c>
-      <c r="C111" s="5">
+      <c r="D111" s="5">
         <v>9971.58</v>
       </c>
-      <c r="D111" s="5">
+      <c r="E111" s="5">
         <v>9123.2099999999991</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="5">
         <v>638</v>
       </c>
-      <c r="F111" s="7">
+      <c r="G111" s="5">
         <v>32742.836483999996</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="5">
+      <c r="C112" s="5">
         <v>41527.4</v>
       </c>
-      <c r="C112" s="5">
+      <c r="D112" s="5">
         <v>12281.2</v>
       </c>
-      <c r="D112" s="5">
+      <c r="E112" s="5">
         <v>13029.7</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="5">
         <v>745</v>
       </c>
-      <c r="F112" s="7">
+      <c r="G112" s="5">
         <v>38979.305495000037</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" t="s">
         <v>80</v>
       </c>
-      <c r="B113" s="5">
+      <c r="C113" s="5">
         <v>35060</v>
       </c>
-      <c r="C113" s="5">
+      <c r="D113" s="5">
         <v>12523.9</v>
       </c>
-      <c r="D113" s="5">
+      <c r="E113" s="5">
         <v>9319.89</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="5">
         <v>679</v>
       </c>
-      <c r="F113" s="7">
+      <c r="G113" s="5">
         <v>34589.818702000048</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" t="s">
         <v>81</v>
       </c>
-      <c r="B114" s="5">
+      <c r="C114" s="5">
         <v>20227.8</v>
       </c>
-      <c r="C114" s="5">
+      <c r="D114" s="5">
         <v>6881.23</v>
       </c>
-      <c r="D114" s="5">
+      <c r="E114" s="5">
         <v>5708.3</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="5">
         <v>383</v>
       </c>
-      <c r="F114" s="7">
+      <c r="G114" s="5">
         <v>20068.106400999975</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="5">
+      <c r="C115" s="5">
         <v>28302.7</v>
       </c>
-      <c r="C115" s="5">
+      <c r="D115" s="5">
         <v>8579.43</v>
       </c>
-      <c r="D115" s="5">
+      <c r="E115" s="5">
         <v>8893</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="5">
         <v>447</v>
       </c>
-      <c r="F115" s="7">
+      <c r="G115" s="5">
         <v>23946.710903000014</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="5">
+      <c r="C116" s="5">
         <v>45316.5</v>
       </c>
-      <c r="C116" s="5">
+      <c r="D116" s="5">
         <v>14190.9</v>
       </c>
-      <c r="D116" s="5">
+      <c r="E116" s="5">
         <v>13660.1</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="5">
         <v>691</v>
       </c>
-      <c r="F116" s="7">
+      <c r="G116" s="5">
         <v>32839.324934000018</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="5">
+      <c r="C117" s="5">
         <v>36361</v>
       </c>
-      <c r="C117" s="5">
+      <c r="D117" s="5">
         <v>12067.1</v>
       </c>
-      <c r="D117" s="5">
+      <c r="E117" s="5">
         <v>10096.200000000001</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="5">
         <v>692</v>
       </c>
-      <c r="F117" s="7">
+      <c r="G117" s="5">
         <v>39327.083586500026</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="5">
+      <c r="C118" s="5">
         <v>31506.9</v>
       </c>
-      <c r="C118" s="5">
+      <c r="D118" s="5">
         <v>11994.1</v>
       </c>
-      <c r="D118" s="5">
+      <c r="E118" s="5">
         <v>7779.19</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="5">
         <v>711</v>
       </c>
-      <c r="F118" s="7">
+      <c r="G118" s="5">
         <v>39814.832854999971</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="5">
+      <c r="C119" s="5">
         <v>43202.2</v>
       </c>
-      <c r="C119" s="5">
+      <c r="D119" s="5">
         <v>16022.6</v>
       </c>
-      <c r="D119" s="5">
+      <c r="E119" s="5">
         <v>10695.3</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="5">
         <v>868</v>
       </c>
-      <c r="F119" s="7">
+      <c r="G119" s="5">
         <v>48231.096277900077</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="5">
+      <c r="C120" s="5">
         <v>17431.099999999999</v>
       </c>
-      <c r="C120" s="5">
+      <c r="D120" s="5">
         <v>6500.41</v>
       </c>
-      <c r="D120" s="5">
+      <c r="E120" s="5">
         <v>4337.47</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="5">
         <v>343</v>
       </c>
-      <c r="F120" s="7">
+      <c r="G120" s="5">
         <v>20414.933852999988</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" t="s">
         <v>88</v>
       </c>
-      <c r="B121" s="5">
+      <c r="C121" s="5">
         <v>52800.4</v>
       </c>
-      <c r="C121" s="5">
+      <c r="D121" s="5">
         <v>16554.099999999999</v>
       </c>
-      <c r="D121" s="5">
+      <c r="E121" s="5">
         <v>15628.3</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121" s="5">
         <v>935</v>
       </c>
-      <c r="F121" s="7">
+      <c r="G121" s="5">
         <v>46791.217666999881</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="5">
+      <c r="C122" s="5">
         <v>18929</v>
       </c>
-      <c r="C122" s="5">
+      <c r="D122" s="5">
         <v>6342.45</v>
       </c>
-      <c r="D122" s="5">
+      <c r="E122" s="5">
         <v>5250.99</v>
       </c>
-      <c r="E122" s="2">
+      <c r="F122" s="5">
         <v>344</v>
       </c>
-      <c r="F122" s="7">
+      <c r="G122" s="5">
         <v>18587.40689599999</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="5">
+      <c r="C123" s="5">
         <v>36125.599999999999</v>
       </c>
-      <c r="C123" s="5">
+      <c r="D123" s="5">
         <v>12203.4</v>
       </c>
-      <c r="D123" s="5">
+      <c r="E123" s="5">
         <v>9836.61</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="5">
         <v>659</v>
       </c>
-      <c r="F123" s="7">
+      <c r="G123" s="5">
         <v>36900.211931699967</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" t="s">
         <v>91</v>
       </c>
-      <c r="B124" s="5">
+      <c r="C124" s="5">
         <v>30164.7</v>
       </c>
-      <c r="C124" s="5">
+      <c r="D124" s="5">
         <v>9919.14</v>
       </c>
-      <c r="D124" s="5">
+      <c r="E124" s="5">
         <v>8584.1</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124" s="5">
         <v>539</v>
       </c>
-      <c r="F124" s="7">
+      <c r="G124" s="5">
         <v>28509.020528000015</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" t="s">
         <v>92</v>
       </c>
-      <c r="B125" s="5">
+      <c r="C125" s="5">
         <v>32151.5</v>
       </c>
-      <c r="C125" s="5">
+      <c r="D125" s="5">
         <v>9949.93</v>
       </c>
-      <c r="D125" s="5">
+      <c r="E125" s="5">
         <v>9689.57</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="5">
         <v>553</v>
       </c>
-      <c r="F125" s="7">
+      <c r="G125" s="5">
         <v>28358.728157000023</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="5">
+      <c r="C126" s="5">
         <v>51235</v>
       </c>
-      <c r="C126" s="5">
+      <c r="D126" s="5">
         <v>15995.5</v>
       </c>
-      <c r="D126" s="5">
+      <c r="E126" s="5">
         <v>15324</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126" s="5">
         <v>979</v>
       </c>
-      <c r="F126" s="7">
+      <c r="G126" s="5">
         <v>49305.051588999988</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>262</v>
+      </c>
+      <c r="B127" t="s">
         <v>94</v>
       </c>
-      <c r="B127" s="5">
+      <c r="C127" s="5">
         <v>55095.3</v>
       </c>
-      <c r="C127" s="5">
+      <c r="D127" s="5">
         <v>16632.400000000001</v>
       </c>
-      <c r="D127" s="5">
+      <c r="E127" s="5">
         <v>17266.2</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="5">
         <v>956</v>
       </c>
-      <c r="F127" s="7">
+      <c r="G127" s="5">
         <v>47617.567492999937</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="6">
+      <c r="C128" s="6">
         <v>22650.2</v>
       </c>
-      <c r="C128" s="6">
+      <c r="D128" s="6">
         <v>7411.15</v>
       </c>
-      <c r="D128" s="6">
+      <c r="E128" s="6">
         <v>6395.59</v>
       </c>
-      <c r="E128" s="4">
+      <c r="F128" s="6">
         <v>424</v>
       </c>
-      <c r="F128" s="8">
+      <c r="G128" s="6">
         <v>23174.335484400002</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="5">
+      <c r="C129" s="5">
         <v>31964.3</v>
       </c>
-      <c r="C129" s="5">
+      <c r="D129" s="5">
         <v>18738.900000000001</v>
       </c>
-      <c r="D129" s="5">
+      <c r="E129" s="5">
         <v>6545.32</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="5">
         <v>926</v>
       </c>
-      <c r="F129" s="7">
+      <c r="G129" s="5">
         <v>51691.461505999956</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="5">
+      <c r="C130" s="5">
         <v>48180.800000000003</v>
       </c>
-      <c r="C130" s="5">
+      <c r="D130" s="5">
         <v>18738.900000000001</v>
       </c>
-      <c r="D130" s="5">
+      <c r="E130" s="5">
         <v>11337.9</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="5">
         <v>1271</v>
       </c>
-      <c r="F130" s="7">
+      <c r="G130" s="5">
         <v>74252.140289299976</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="5">
+      <c r="C131" s="5">
         <v>37738.9</v>
       </c>
-      <c r="C131" s="5">
+      <c r="D131" s="5">
         <v>15508.8</v>
       </c>
-      <c r="D131" s="5">
+      <c r="E131" s="5">
         <v>8364.66</v>
       </c>
-      <c r="E131" s="2">
+      <c r="F131" s="5">
         <v>1079</v>
       </c>
-      <c r="F131" s="7">
+      <c r="G131" s="5">
         <v>58539.165246000084</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="5">
+      <c r="C133" s="5">
         <v>39143.300000000003</v>
       </c>
-      <c r="C133" s="5">
+      <c r="D133" s="5">
         <v>16583.400000000001</v>
       </c>
-      <c r="D133" s="5">
+      <c r="E133" s="5">
         <v>8344.2099999999991</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133" s="5">
         <v>943</v>
       </c>
-      <c r="F133" s="7">
+      <c r="G133" s="5">
         <v>51090.962175000059</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="5">
+      <c r="C134" s="5">
         <v>38996.6</v>
       </c>
-      <c r="C134" s="5">
+      <c r="D134" s="5">
         <v>18760</v>
       </c>
-      <c r="D134" s="5">
+      <c r="E134" s="5">
         <v>7116.93</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="5">
         <v>1273</v>
       </c>
-      <c r="F134" s="7">
+      <c r="G134" s="5">
         <v>70184.967247999986</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="5">
+      <c r="C135" s="5">
         <v>43856.6</v>
       </c>
-      <c r="C135" s="5">
+      <c r="D135" s="5">
         <v>18447.099999999999</v>
       </c>
-      <c r="D135" s="5">
+      <c r="E135" s="5">
         <v>9316.93</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135" s="5">
         <v>1319</v>
       </c>
-      <c r="F135" s="7">
+      <c r="G135" s="5">
         <v>70325.928039499966</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="5">
+      <c r="C137" s="5">
         <v>32931.4</v>
       </c>
-      <c r="C137" s="5">
+      <c r="D137" s="5">
         <v>15209.9</v>
       </c>
-      <c r="D137" s="5">
+      <c r="E137" s="5">
         <v>6260.94</v>
       </c>
-      <c r="E137" s="2">
+      <c r="F137" s="5">
         <v>1116</v>
       </c>
-      <c r="F137" s="7">
+      <c r="G137" s="5">
         <v>66453.745005999997</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="5">
+      <c r="C138" s="5">
         <v>61259.4</v>
       </c>
-      <c r="C138" s="5">
+      <c r="D138" s="5">
         <v>28520.1</v>
       </c>
-      <c r="D138" s="5">
+      <c r="E138" s="5">
         <v>11828.5</v>
       </c>
-      <c r="E138" s="2">
+      <c r="F138" s="5">
         <v>1816</v>
       </c>
-      <c r="F138" s="7">
+      <c r="G138" s="5">
         <v>66836.609006499872</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="5">
+      <c r="C139" s="5">
         <v>33295</v>
       </c>
-      <c r="C139" s="5">
+      <c r="D139" s="5">
         <v>15487.2</v>
       </c>
-      <c r="D139" s="5">
+      <c r="E139" s="5">
         <v>6230.14</v>
       </c>
-      <c r="E139" s="2">
+      <c r="F139" s="5">
         <v>1058</v>
       </c>
-      <c r="F139" s="7">
+      <c r="G139" s="5">
         <v>60924.483507999939</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>262</v>
+      </c>
+      <c r="B140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>262</v>
+      </c>
+      <c r="B141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="5">
+      <c r="C141" s="5">
         <v>39983</v>
       </c>
-      <c r="C141" s="5">
+      <c r="D141" s="5">
         <v>17749.5</v>
       </c>
-      <c r="D141" s="5">
+      <c r="E141" s="5">
         <v>7940.49</v>
       </c>
-      <c r="E141" s="2">
+      <c r="F141" s="5">
         <v>1206</v>
       </c>
-      <c r="F141" s="7">
+      <c r="G141" s="5">
         <v>68367.176665999956</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="5">
+      <c r="C142" s="5">
         <v>46970.2</v>
       </c>
-      <c r="C142" s="5">
+      <c r="D142" s="5">
         <v>21366.5</v>
       </c>
-      <c r="D142" s="5">
+      <c r="E142" s="5">
         <v>9026.81</v>
       </c>
-      <c r="E142" s="2">
+      <c r="F142" s="5">
         <v>1516</v>
       </c>
-      <c r="F142" s="7">
+      <c r="G142" s="5">
         <v>77840.528497000181</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="5">
+      <c r="C143" s="5">
         <v>40985.300000000003</v>
       </c>
-      <c r="C143" s="5">
+      <c r="D143" s="5">
         <v>18953.900000000001</v>
       </c>
-      <c r="D143" s="5">
+      <c r="E143" s="5">
         <v>7804.8</v>
       </c>
-      <c r="E143" s="2">
+      <c r="F143" s="5">
         <v>1302</v>
       </c>
-      <c r="F143" s="7">
+      <c r="G143" s="5">
         <v>78828.904265299847</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="5">
+      <c r="C145" s="5">
         <v>20839.099999999999</v>
       </c>
-      <c r="C145" s="5">
+      <c r="D145" s="5">
         <v>7923.66</v>
       </c>
-      <c r="D145" s="5">
+      <c r="E145" s="5">
         <v>5078.1400000000003</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145" s="5">
         <v>389</v>
       </c>
-      <c r="F145" s="7">
+      <c r="G145" s="5">
         <v>21549.342100000009</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="5">
+      <c r="C146" s="5">
         <v>14261.3</v>
       </c>
-      <c r="C146" s="5">
+      <c r="D146" s="5">
         <v>6451.14</v>
       </c>
-      <c r="D146" s="5">
+      <c r="E146" s="5">
         <v>2798.58</v>
       </c>
-      <c r="E146" s="2">
+      <c r="F146" s="5">
         <v>297</v>
       </c>
-      <c r="F146" s="7">
+      <c r="G146" s="5">
         <v>16870.970648999988</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="5">
+      <c r="C147" s="5">
         <v>20858.099999999999</v>
       </c>
-      <c r="C147" s="5">
+      <c r="D147" s="5">
         <v>8854.1</v>
       </c>
-      <c r="D147" s="5">
+      <c r="E147" s="5">
         <v>4428.3999999999996</v>
       </c>
-      <c r="E147" s="2">
+      <c r="F147" s="5">
         <v>403</v>
       </c>
-      <c r="F147" s="7">
+      <c r="G147" s="5">
         <v>23560.250986000032</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="5">
+      <c r="C148" s="5">
         <v>13951</v>
       </c>
-      <c r="C148" s="5">
+      <c r="D148" s="5">
         <v>5471.75</v>
       </c>
-      <c r="D148" s="5">
+      <c r="E148" s="5">
         <v>3221.77</v>
       </c>
-      <c r="E148" s="2">
+      <c r="F148" s="5">
         <v>305</v>
       </c>
-      <c r="F148" s="7">
+      <c r="G148" s="5">
         <v>16248.537338999995</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="5">
+      <c r="C149" s="5">
         <v>22418.6</v>
       </c>
-      <c r="C149" s="5">
+      <c r="D149" s="5">
         <v>8740.43</v>
       </c>
-      <c r="D149" s="5">
+      <c r="E149" s="5">
         <v>5244.47</v>
       </c>
-      <c r="E149" s="2">
+      <c r="F149" s="5">
         <v>433</v>
       </c>
-      <c r="F149" s="7">
+      <c r="G149" s="5">
         <v>23889.291300699992</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="5">
+      <c r="C150" s="5">
         <v>16271.8</v>
       </c>
-      <c r="C150" s="5">
+      <c r="D150" s="5">
         <v>7063.21</v>
       </c>
-      <c r="D150" s="5">
+      <c r="E150" s="5">
         <v>3370.41</v>
       </c>
-      <c r="E150" s="2">
+      <c r="F150" s="5">
         <v>342</v>
       </c>
-      <c r="F150" s="7">
+      <c r="G150" s="5">
         <v>18700.153312999984</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>262</v>
+      </c>
+      <c r="B151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="5">
+      <c r="C151" s="5">
         <v>11091.1</v>
       </c>
-      <c r="C151" s="5">
+      <c r="D151" s="5">
         <v>5208.5600000000004</v>
       </c>
-      <c r="D151" s="5">
+      <c r="E151" s="5">
         <v>2098.44</v>
       </c>
-      <c r="E151" s="2">
+      <c r="F151" s="5">
         <v>252</v>
       </c>
-      <c r="F151" s="7">
+      <c r="G151" s="5">
         <v>14803.396081000006</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="5">
+      <c r="C152" s="5">
         <v>17227.5</v>
       </c>
-      <c r="C152" s="5">
+      <c r="D152" s="5">
         <v>6505.67</v>
       </c>
-      <c r="D152" s="5">
+      <c r="E152" s="5">
         <v>4218.6899999999996</v>
       </c>
-      <c r="E152" s="2">
+      <c r="F152" s="5">
         <v>329</v>
       </c>
-      <c r="F152" s="7">
+      <c r="G152" s="5">
         <v>16983.844487000006</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>262</v>
+      </c>
+      <c r="B153" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="5">
+      <c r="C153" s="5">
         <v>39161.300000000003</v>
       </c>
-      <c r="C153" s="5">
+      <c r="D153" s="5">
         <v>15196.1</v>
       </c>
-      <c r="D153" s="5">
+      <c r="E153" s="5">
         <v>9444.82</v>
       </c>
-      <c r="E153" s="2">
+      <c r="F153" s="5">
         <v>884</v>
       </c>
-      <c r="F153" s="7">
+      <c r="G153" s="5">
         <v>52466.281798000004</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B154" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="5">
+      <c r="C154" s="5">
         <v>43474.1</v>
       </c>
-      <c r="C154" s="5">
+      <c r="D154" s="5">
         <v>18800.3</v>
       </c>
-      <c r="D154" s="5">
+      <c r="E154" s="5">
         <v>9407.76</v>
       </c>
-      <c r="E154" s="2">
+      <c r="F154" s="5">
         <v>1178</v>
       </c>
-      <c r="F154" s="7">
+      <c r="G154" s="5">
         <v>68282.789418699991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>262</v>
+      </c>
+      <c r="B155" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>262</v>
+      </c>
+      <c r="B157" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="5">
+      <c r="C157" s="5">
         <v>12748.9</v>
       </c>
-      <c r="C157" s="5">
+      <c r="D157" s="5">
         <v>5706.26</v>
       </c>
-      <c r="D157" s="5">
+      <c r="E157" s="5">
         <v>2562.84</v>
       </c>
-      <c r="E157" s="2">
+      <c r="F157" s="5">
         <v>292</v>
       </c>
-      <c r="F157" s="7">
+      <c r="G157" s="5">
         <v>17165.98502</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>262</v>
+      </c>
+      <c r="B158" t="s">
         <v>154</v>
       </c>
-      <c r="B158" s="5">
+      <c r="C158" s="5">
         <v>27909.7</v>
       </c>
-      <c r="C158" s="5">
+      <c r="D158" s="5">
         <v>11206.1</v>
       </c>
-      <c r="D158" s="5">
+      <c r="E158" s="5">
         <v>6343.86</v>
       </c>
-      <c r="E158" s="2">
+      <c r="F158" s="5">
         <v>615</v>
       </c>
-      <c r="F158" s="7">
+      <c r="G158" s="5">
         <v>37733.163335299985</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>262</v>
+      </c>
+      <c r="B159" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="8"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="5">
+      <c r="C161" s="5">
         <v>44826.400000000001</v>
       </c>
-      <c r="C161" s="5">
+      <c r="D161" s="5">
         <v>17722.8</v>
       </c>
-      <c r="D161" s="5">
+      <c r="E161" s="5">
         <v>10337.4</v>
       </c>
-      <c r="E161" s="2">
+      <c r="F161" s="5">
         <v>1106</v>
       </c>
-      <c r="F161" s="7">
+      <c r="G161" s="5">
         <v>63143.517413999907</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="5">
+      <c r="C162" s="5">
         <v>40717.800000000003</v>
       </c>
-      <c r="C162" s="5">
+      <c r="D162" s="5">
         <v>17390.5</v>
       </c>
-      <c r="D162" s="5">
+      <c r="E162" s="5">
         <v>8629.3700000000008</v>
       </c>
-      <c r="E162" s="2">
+      <c r="F162" s="5">
         <v>1096</v>
       </c>
-      <c r="F162" s="7">
+      <c r="G162" s="5">
         <v>61608.056062299991</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>262</v>
+      </c>
+      <c r="B163" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="5">
+      <c r="C163" s="5">
         <v>28049.9</v>
       </c>
-      <c r="C163" s="5">
+      <c r="D163" s="5">
         <v>12130.1</v>
       </c>
-      <c r="D163" s="5">
+      <c r="E163" s="5">
         <v>5831.67</v>
       </c>
-      <c r="E163" s="2">
+      <c r="F163" s="5">
         <v>752</v>
       </c>
-      <c r="F163" s="7">
+      <c r="G163" s="5">
         <v>44717.73671200002</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>262</v>
+      </c>
+      <c r="B164" t="s">
         <v>160</v>
       </c>
-      <c r="B164" s="5">
+      <c r="C164" s="5">
         <v>44620.800000000003</v>
       </c>
-      <c r="C164" s="5">
+      <c r="D164" s="5">
         <v>20427.5</v>
       </c>
-      <c r="D164" s="5">
+      <c r="E164" s="5">
         <v>8612.36</v>
       </c>
-      <c r="E164" s="2">
+      <c r="F164" s="5">
         <v>1286</v>
       </c>
-      <c r="F164" s="7">
+      <c r="G164" s="5">
         <v>76477.072908000046</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>262</v>
+      </c>
+      <c r="B165" t="s">
         <v>161</v>
       </c>
-      <c r="B165" s="5">
+      <c r="C165" s="5">
         <v>30137.9</v>
       </c>
-      <c r="C165" s="5">
+      <c r="D165" s="5">
         <v>12949.6</v>
       </c>
-      <c r="D165" s="5">
+      <c r="E165" s="5">
         <v>6438.16</v>
       </c>
-      <c r="E165" s="2">
+      <c r="F165" s="5">
         <v>682</v>
       </c>
-      <c r="F165" s="7">
+      <c r="G165" s="5">
         <v>37629.551669</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>262</v>
+      </c>
+      <c r="B166" t="s">
         <v>162</v>
       </c>
-      <c r="B166" s="5">
+      <c r="C166" s="5">
         <v>20000.400000000001</v>
       </c>
-      <c r="C166" s="5">
+      <c r="D166" s="5">
         <v>8980.1299999999992</v>
       </c>
-      <c r="D166" s="5">
+      <c r="E166" s="5">
         <v>4039.69</v>
       </c>
-      <c r="E166" s="2">
+      <c r="F166" s="5">
         <v>477</v>
       </c>
-      <c r="F166" s="7">
+      <c r="G166" s="5">
         <v>28793.63652630003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>262</v>
+      </c>
+      <c r="B167" t="s">
         <v>163</v>
       </c>
-      <c r="B167" s="5">
+      <c r="C167" s="5">
         <v>21589.599999999999</v>
       </c>
-      <c r="C167" s="5">
+      <c r="D167" s="5">
         <v>8399</v>
       </c>
-      <c r="D167" s="5">
+      <c r="E167" s="5">
         <v>4924.5</v>
       </c>
-      <c r="E167" s="2">
+      <c r="F167" s="5">
         <v>459</v>
       </c>
-      <c r="F167" s="7">
+      <c r="G167" s="5">
         <v>26331.084063699971</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" t="s">
         <v>164</v>
       </c>
-      <c r="B168" s="5">
+      <c r="C168" s="5">
         <v>24690.9</v>
       </c>
-      <c r="C168" s="5">
+      <c r="D168" s="5">
         <v>11465.7</v>
       </c>
-      <c r="D168" s="5">
+      <c r="E168" s="5">
         <v>4630.22</v>
       </c>
-      <c r="E168" s="2">
+      <c r="F168" s="5">
         <v>685</v>
       </c>
-      <c r="F168" s="7">
+      <c r="G168" s="5">
         <v>40366.639767999972</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>262</v>
+      </c>
+      <c r="B169" t="s">
         <v>165</v>
       </c>
-      <c r="B169" s="5">
+      <c r="C169" s="5">
         <v>28125.4</v>
       </c>
-      <c r="C169" s="5">
+      <c r="D169" s="5">
         <v>10391.9</v>
       </c>
-      <c r="D169" s="5">
+      <c r="E169" s="5">
         <v>7055.13</v>
       </c>
-      <c r="E169" s="2">
+      <c r="F169" s="5">
         <v>612</v>
       </c>
-      <c r="F169" s="7">
+      <c r="G169" s="5">
         <v>32808.833446999968</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>262</v>
+      </c>
+      <c r="B170" t="s">
         <v>166</v>
       </c>
-      <c r="B170" s="5">
+      <c r="C170" s="5">
         <v>36501.199999999997</v>
       </c>
-      <c r="C170" s="5">
+      <c r="D170" s="5">
         <v>13942.2</v>
       </c>
-      <c r="D170" s="5">
+      <c r="E170" s="5">
         <v>8707.48</v>
       </c>
-      <c r="E170" s="2">
+      <c r="F170" s="5">
         <v>813</v>
       </c>
-      <c r="F170" s="7">
+      <c r="G170" s="5">
         <v>47757.485666</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" t="s">
         <v>167</v>
       </c>
-      <c r="B171" s="5">
+      <c r="C171" s="5">
         <v>22559.1</v>
       </c>
-      <c r="C171" s="5">
+      <c r="D171" s="5">
         <v>8738.06</v>
       </c>
-      <c r="D171" s="5">
+      <c r="E171" s="5">
         <v>5347.32</v>
       </c>
-      <c r="E171" s="2">
+      <c r="F171" s="5">
         <v>505</v>
       </c>
-      <c r="F171" s="7">
+      <c r="G171" s="5">
         <v>27015.48869100001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>262</v>
+      </c>
+      <c r="B172" t="s">
         <v>168</v>
       </c>
-      <c r="B172" s="5">
+      <c r="C172" s="5">
         <v>24487.5</v>
       </c>
-      <c r="C172" s="5">
+      <c r="D172" s="5">
         <v>9147.15</v>
       </c>
-      <c r="D172" s="5">
+      <c r="E172" s="5">
         <v>5973</v>
       </c>
-      <c r="E172" s="2">
+      <c r="F172" s="5">
         <v>571</v>
       </c>
-      <c r="F172" s="7">
+      <c r="G172" s="5">
         <v>31854.632514700017</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>262</v>
+      </c>
+      <c r="B173" t="s">
         <v>169</v>
       </c>
-      <c r="B173" s="5">
+      <c r="C173" s="5">
         <v>79759</v>
       </c>
-      <c r="C173" s="5">
+      <c r="D173" s="5">
         <v>27364.7</v>
       </c>
-      <c r="D173" s="5">
+      <c r="E173" s="5">
         <v>21431.200000000001</v>
       </c>
-      <c r="E173" s="2">
+      <c r="F173" s="5">
         <v>1730</v>
       </c>
-      <c r="F173" s="7">
+      <c r="G173" s="5">
         <v>68132.192042299939</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>262</v>
+      </c>
+      <c r="B174" t="s">
         <v>170</v>
       </c>
-      <c r="B174" s="5">
+      <c r="C174" s="5">
         <v>28887</v>
       </c>
-      <c r="C174" s="5">
+      <c r="D174" s="5">
         <v>10941.7</v>
       </c>
-      <c r="D174" s="5">
+      <c r="E174" s="5">
         <v>6960.02</v>
       </c>
-      <c r="E174" s="2">
+      <c r="F174" s="5">
         <v>682</v>
       </c>
-      <c r="F174" s="7">
+      <c r="G174" s="5">
         <v>38708.725029500005</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>262</v>
+      </c>
+      <c r="B175" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="5">
+      <c r="C175" s="5">
         <v>37474.9</v>
       </c>
-      <c r="C175" s="5">
+      <c r="D175" s="5">
         <v>13921.8</v>
       </c>
-      <c r="D175" s="5">
+      <c r="E175" s="5">
         <v>9254.39</v>
       </c>
-      <c r="E175" s="2">
+      <c r="F175" s="5">
         <v>893</v>
       </c>
-      <c r="F175" s="7">
+      <c r="G175" s="5">
         <v>48908.07160500007</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>262</v>
+      </c>
+      <c r="B176" t="s">
         <v>172</v>
       </c>
-      <c r="B176" s="5">
+      <c r="C176" s="5">
         <v>50137.2</v>
       </c>
-      <c r="C176" s="5">
+      <c r="D176" s="5">
         <v>16508.400000000001</v>
       </c>
-      <c r="D176" s="5">
+      <c r="E176" s="5">
         <v>14225.1</v>
       </c>
-      <c r="E176" s="2">
+      <c r="F176" s="5">
         <v>1016</v>
       </c>
-      <c r="F176" s="7">
+      <c r="G176" s="5">
         <v>59453.078786999904</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="5">
+      <c r="C177" s="5">
         <v>43671.9</v>
       </c>
-      <c r="C177" s="5">
+      <c r="D177" s="5">
         <v>17644.5</v>
       </c>
-      <c r="D177" s="5">
+      <c r="E177" s="5">
         <v>10005.299999999999</v>
       </c>
-      <c r="E177" s="2">
+      <c r="F177" s="5">
         <v>1073</v>
       </c>
-      <c r="F177" s="7">
+      <c r="G177" s="5">
         <v>54923.321220999918</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="5">
+      <c r="C178" s="5">
         <v>25636.6</v>
       </c>
-      <c r="C178" s="5">
+      <c r="D178" s="5">
         <v>8744.25</v>
       </c>
-      <c r="D178" s="5">
+      <c r="E178" s="5">
         <v>7193.25</v>
       </c>
-      <c r="E178" s="2">
+      <c r="F178" s="5">
         <v>477</v>
       </c>
-      <c r="F178" s="7">
+      <c r="G178" s="5">
         <v>22587.152666300008</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" t="s">
         <v>175</v>
       </c>
-      <c r="B179" s="5">
+      <c r="C179" s="5">
         <v>28703.3</v>
       </c>
-      <c r="C179" s="5">
+      <c r="D179" s="5">
         <v>10995.2</v>
       </c>
-      <c r="D179" s="5">
+      <c r="E179" s="5">
         <v>6850.67</v>
       </c>
-      <c r="E179" s="2">
+      <c r="F179" s="5">
         <v>636</v>
       </c>
-      <c r="F179" s="7">
+      <c r="G179" s="5">
         <v>36553.220813999971</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" t="s">
         <v>176</v>
       </c>
-      <c r="B180" s="5">
+      <c r="C180" s="5">
         <v>32960.400000000001</v>
       </c>
-      <c r="C180" s="5">
+      <c r="D180" s="5">
         <v>11057.1</v>
       </c>
-      <c r="D180" s="5">
+      <c r="E180" s="5">
         <v>9093.44</v>
       </c>
-      <c r="E180" s="2">
+      <c r="F180" s="5">
         <v>691</v>
       </c>
-      <c r="F180" s="7">
+      <c r="G180" s="5">
         <v>36339.247396000021</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>262</v>
+      </c>
+      <c r="B181" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="5">
+      <c r="C181" s="5">
         <v>57168.26</v>
       </c>
-      <c r="C181" s="5">
+      <c r="D181" s="5">
         <v>24109.59</v>
       </c>
-      <c r="D181" s="5">
+      <c r="E181" s="5">
         <v>12737.936</v>
       </c>
-      <c r="E181" s="2">
+      <c r="F181" s="5">
         <v>1530</v>
       </c>
-      <c r="F181" s="7">
+      <c r="G181" s="5">
         <v>68214.208321999802</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" t="s">
         <v>178</v>
       </c>
-      <c r="B182" s="5">
+      <c r="C182" s="5">
         <v>16143</v>
       </c>
-      <c r="C182" s="5">
+      <c r="D182" s="5">
         <v>7576.27</v>
       </c>
-      <c r="D182" s="5">
+      <c r="E182" s="5">
         <v>3060.76</v>
       </c>
-      <c r="E182" s="2">
+      <c r="F182" s="5">
         <v>407</v>
       </c>
-      <c r="F182" s="7">
+      <c r="G182" s="5">
         <v>23583.758151000031</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" t="s">
         <v>179</v>
       </c>
-      <c r="B183" s="5">
+      <c r="C183" s="5">
         <v>20116.400000000001</v>
       </c>
-      <c r="C183" s="5">
+      <c r="D183" s="5">
         <v>9275.83</v>
       </c>
-      <c r="D183" s="5">
+      <c r="E183" s="5">
         <v>3898.19</v>
       </c>
-      <c r="E183" s="2">
+      <c r="F183" s="5">
         <v>547</v>
       </c>
-      <c r="F183" s="7">
+      <c r="G183" s="5">
         <v>31964.300209000045</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" t="s">
         <v>180</v>
       </c>
-      <c r="B184" s="5">
+      <c r="C184" s="5">
         <v>50079.4</v>
       </c>
-      <c r="C184" s="5">
+      <c r="D184" s="5">
         <v>21767</v>
       </c>
-      <c r="D184" s="5">
+      <c r="E184" s="5">
         <v>10562.5</v>
       </c>
-      <c r="E184" s="2">
+      <c r="F184" s="5">
         <v>1433</v>
       </c>
-      <c r="F184" s="7">
+      <c r="G184" s="5">
         <v>73044.647955999913</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>262</v>
+      </c>
+      <c r="B185" t="s">
         <v>181</v>
       </c>
-      <c r="B185" s="5">
+      <c r="C185" s="5">
         <v>38426.9</v>
       </c>
-      <c r="C185" s="5">
+      <c r="D185" s="5">
         <v>14154.4</v>
       </c>
-      <c r="D185" s="5">
+      <c r="E185" s="5">
         <v>9582.75</v>
       </c>
-      <c r="E185" s="2">
+      <c r="F185" s="5">
         <v>919</v>
       </c>
-      <c r="F185" s="7">
+      <c r="G185" s="5">
         <v>51693.983547000098</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186" t="s">
         <v>182</v>
       </c>
-      <c r="B186" s="5">
+      <c r="C186" s="5">
         <v>36605.1</v>
       </c>
-      <c r="C186" s="5">
+      <c r="D186" s="5">
         <v>12668.1</v>
       </c>
-      <c r="D186" s="5">
+      <c r="E186" s="5">
         <v>9803.32</v>
       </c>
-      <c r="E186" s="2">
+      <c r="F186" s="5">
         <v>784</v>
       </c>
-      <c r="F186" s="7">
+      <c r="G186" s="5">
         <v>42698.36343499997</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" t="s">
         <v>183</v>
       </c>
-      <c r="B187" s="5">
+      <c r="C187" s="5">
         <v>54287.3</v>
       </c>
-      <c r="C187" s="5">
+      <c r="D187" s="5">
         <v>19228</v>
       </c>
-      <c r="D187" s="5">
+      <c r="E187" s="5">
         <v>14256.9</v>
       </c>
-      <c r="E187" s="2">
+      <c r="F187" s="5">
         <v>1195</v>
       </c>
-      <c r="F187" s="7">
+      <c r="G187" s="5">
         <v>63447.958487000076</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" t="s">
         <v>184</v>
       </c>
-      <c r="B188" s="5">
+      <c r="C188" s="5">
         <v>25585.4</v>
       </c>
-      <c r="C188" s="5">
+      <c r="D188" s="5">
         <v>8241.7000000000007</v>
       </c>
-      <c r="D188" s="5">
+      <c r="E188" s="5">
         <v>7485.71</v>
       </c>
-      <c r="E188" s="2">
+      <c r="F188" s="5">
         <v>520</v>
       </c>
-      <c r="F188" s="7">
+      <c r="G188" s="5">
         <v>28273.919575999975</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>262</v>
+      </c>
+      <c r="B189" t="s">
         <v>185</v>
       </c>
-      <c r="B189" s="5">
+      <c r="C189" s="5">
         <v>45047.5</v>
       </c>
-      <c r="C189" s="5">
+      <c r="D189" s="5">
         <v>17418.8</v>
       </c>
-      <c r="D189" s="5">
+      <c r="E189" s="5">
         <v>10619.3</v>
       </c>
-      <c r="E189" s="2">
+      <c r="F189" s="5">
         <v>1074</v>
       </c>
-      <c r="F189" s="7">
+      <c r="G189" s="5">
         <v>61477.377808999991</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>262</v>
+      </c>
+      <c r="B190" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="5">
+      <c r="C190" s="5">
         <v>60494.400000000001</v>
       </c>
-      <c r="C190" s="5">
+      <c r="D190" s="5">
         <v>24467.9</v>
       </c>
-      <c r="D190" s="5">
+      <c r="E190" s="5">
         <v>14084.6</v>
       </c>
-      <c r="E190" s="2">
+      <c r="F190" s="5">
         <v>1595</v>
       </c>
-      <c r="F190" s="7">
+      <c r="G190" s="5">
         <v>68135.713886999962</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>262</v>
+      </c>
+      <c r="B191" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="5">
+      <c r="C191" s="5">
         <v>50004.7</v>
       </c>
-      <c r="C191" s="5">
+      <c r="D191" s="5">
         <v>21508.9</v>
       </c>
-      <c r="D191" s="5">
+      <c r="E191" s="5">
         <v>10652.8</v>
       </c>
-      <c r="E191" s="2">
+      <c r="F191" s="5">
         <v>1350</v>
       </c>
-      <c r="F191" s="7">
+      <c r="G191" s="5">
         <v>70430.819512999893</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B192" s="6">
+      <c r="C192" s="6">
         <v>36074.199999999997</v>
       </c>
-      <c r="C192" s="6">
+      <c r="D192" s="6">
         <v>13746.2</v>
       </c>
-      <c r="D192" s="6">
+      <c r="E192" s="6">
         <v>8797.73</v>
       </c>
-      <c r="E192" s="4">
+      <c r="F192" s="6">
         <v>863</v>
       </c>
-      <c r="F192" s="8">
+      <c r="G192" s="6">
         <v>45292.045241000036</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>262</v>
+      </c>
+      <c r="B193" t="s">
         <v>189</v>
       </c>
-      <c r="B193" s="5">
+      <c r="C193" s="5">
         <v>17486.7</v>
       </c>
-      <c r="C193" s="5">
+      <c r="D193" s="5">
         <v>6794.48</v>
       </c>
-      <c r="D193" s="5">
+      <c r="E193" s="5">
         <v>4151.62</v>
       </c>
-      <c r="E193" s="2">
+      <c r="F193" s="5">
         <v>383</v>
       </c>
-      <c r="F193" s="7">
+      <c r="G193" s="5">
         <v>22727.8274423</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>262</v>
+      </c>
+      <c r="B194" t="s">
         <v>190</v>
       </c>
-      <c r="B194" s="5">
+      <c r="C194" s="5">
         <v>16601.5</v>
       </c>
-      <c r="C194" s="5">
+      <c r="D194" s="5">
         <v>6325.88</v>
       </c>
-      <c r="D194" s="5">
+      <c r="E194" s="5">
         <v>4150.7700000000004</v>
       </c>
-      <c r="E194" s="2">
+      <c r="F194" s="5">
         <v>360</v>
       </c>
-      <c r="F194" s="7">
+      <c r="G194" s="5">
         <v>20823.100282299998</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>262</v>
+      </c>
+      <c r="B195" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="5">
+      <c r="C195" s="5">
         <v>60019.199999999997</v>
       </c>
-      <c r="C195" s="5">
+      <c r="D195" s="5">
         <v>23707.9</v>
       </c>
-      <c r="D195" s="5">
+      <c r="E195" s="5">
         <v>14172.2</v>
       </c>
-      <c r="E195" s="2">
+      <c r="F195" s="5">
         <v>1763</v>
       </c>
-      <c r="F195" s="7">
+      <c r="G195" s="5">
         <v>71567.174660000019</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>262</v>
+      </c>
+      <c r="B196" t="s">
         <v>192</v>
       </c>
-      <c r="B196" s="5">
+      <c r="C196" s="5">
         <v>25496.799999999999</v>
       </c>
-      <c r="C196" s="5">
+      <c r="D196" s="5">
         <v>9324.6299999999992</v>
       </c>
-      <c r="D196" s="5">
+      <c r="E196" s="5">
         <v>6573.72</v>
       </c>
-      <c r="E196" s="2">
+      <c r="F196" s="5">
         <v>617</v>
       </c>
-      <c r="F196" s="7">
+      <c r="G196" s="5">
         <v>34306.547029000008</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>262</v>
+      </c>
+      <c r="B197" t="s">
         <v>193</v>
       </c>
-      <c r="B197" s="5">
+      <c r="C197" s="5">
         <v>42945.8</v>
       </c>
-      <c r="C197" s="5">
+      <c r="D197" s="5">
         <v>14070.8</v>
       </c>
-      <c r="D197" s="5">
+      <c r="E197" s="5">
         <v>12049.1</v>
       </c>
-      <c r="E197" s="2">
+      <c r="F197" s="5">
         <v>815</v>
       </c>
-      <c r="F197" s="7">
+      <c r="G197" s="5">
         <v>43854.571700999972</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>262</v>
+      </c>
+      <c r="B198" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="5">
+      <c r="C198" s="5">
         <v>32341</v>
       </c>
-      <c r="C198" s="5">
+      <c r="D198" s="5">
         <v>10712.1</v>
       </c>
-      <c r="D198" s="5">
+      <c r="E198" s="5">
         <v>9036.7000000000007</v>
       </c>
-      <c r="E198" s="2">
+      <c r="F198" s="5">
         <v>647</v>
       </c>
-      <c r="F198" s="7">
+      <c r="G198" s="5">
         <v>32999.012674999991</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>262</v>
+      </c>
+      <c r="B199" t="s">
         <v>195</v>
       </c>
-      <c r="B199" s="5">
+      <c r="C199" s="5">
         <v>41832.6</v>
       </c>
-      <c r="C199" s="5">
+      <c r="D199" s="5">
         <v>15693.6</v>
       </c>
-      <c r="D199" s="5">
+      <c r="E199" s="5">
         <v>10459.5</v>
       </c>
-      <c r="E199" s="2">
+      <c r="F199" s="5">
         <v>1100</v>
       </c>
-      <c r="F199" s="7">
+      <c r="G199" s="5">
         <v>66856.267311000091</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>262</v>
+      </c>
+      <c r="B200" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="5">
+      <c r="C200" s="5">
         <v>49155.8</v>
       </c>
-      <c r="C200" s="5">
+      <c r="D200" s="5">
         <v>19833.599999999999</v>
       </c>
-      <c r="D200" s="5">
+      <c r="E200" s="5">
         <v>11156.9</v>
       </c>
-      <c r="E200" s="2">
+      <c r="F200" s="5">
         <v>1240</v>
       </c>
-      <c r="F200" s="7">
+      <c r="G200" s="5">
         <v>70959.576349999988</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>262</v>
+      </c>
+      <c r="B201" t="s">
         <v>197</v>
       </c>
-      <c r="B201" s="5">
+      <c r="C201" s="5">
         <v>17253.900000000001</v>
       </c>
-      <c r="C201" s="5">
+      <c r="D201" s="5">
         <v>6837.18</v>
       </c>
-      <c r="D201" s="5">
+      <c r="E201" s="5">
         <v>4043.05</v>
       </c>
-      <c r="E201" s="2">
+      <c r="F201" s="5">
         <v>345</v>
       </c>
-      <c r="F201" s="7">
+      <c r="G201" s="5">
         <v>19321.060838300007</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>262</v>
+      </c>
+      <c r="B202" t="s">
         <v>198</v>
       </c>
-      <c r="B202" s="5">
+      <c r="C202" s="5">
         <v>49274.6</v>
       </c>
-      <c r="C202" s="5">
+      <c r="D202" s="5">
         <v>19115.599999999999</v>
       </c>
-      <c r="D202" s="5">
+      <c r="E202" s="5">
         <v>11891.6</v>
       </c>
-      <c r="E202" s="2">
+      <c r="F202" s="5">
         <v>1131</v>
       </c>
-      <c r="F202" s="7">
+      <c r="G202" s="5">
         <v>63516.994559000064</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203" t="s">
         <v>199</v>
       </c>
-      <c r="B203" s="5">
+      <c r="C203" s="5">
         <v>22617.7</v>
       </c>
-      <c r="C203" s="5">
+      <c r="D203" s="5">
         <v>8943.4500000000007</v>
       </c>
-      <c r="D203" s="5">
+      <c r="E203" s="5">
         <v>5409.56</v>
       </c>
-      <c r="E203" s="2">
+      <c r="F203" s="5">
         <v>452</v>
       </c>
-      <c r="F203" s="7">
+      <c r="G203" s="5">
         <v>26133.694736000001</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204" t="s">
         <v>200</v>
       </c>
-      <c r="B204" s="5">
+      <c r="C204" s="5">
         <v>22122.89</v>
       </c>
-      <c r="C204" s="5">
+      <c r="D204" s="5">
         <f>2745.08+5401.59</f>
         <v>8146.67</v>
       </c>
-      <c r="D204" s="5">
+      <c r="E204" s="5">
         <v>3685.3</v>
       </c>
-      <c r="E204" s="2">
+      <c r="F204" s="5">
         <v>463</v>
       </c>
-      <c r="F204" s="7">
+      <c r="G204" s="5">
         <v>26670.627858</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>262</v>
+      </c>
+      <c r="B205" t="s">
         <v>201</v>
       </c>
-      <c r="B205" s="5">
+      <c r="C205" s="5">
         <v>60060.4</v>
       </c>
-      <c r="C205" s="5">
+      <c r="D205" s="5">
         <v>19698.7</v>
       </c>
-      <c r="D205" s="5">
+      <c r="E205" s="5">
         <v>17218</v>
       </c>
-      <c r="E205" s="2">
+      <c r="F205" s="5">
         <v>1301</v>
       </c>
-      <c r="F205" s="7">
+      <c r="G205" s="5">
         <v>69290.364170999965</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>262</v>
+      </c>
+      <c r="B206" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="5">
+      <c r="C206" s="5">
         <v>16349.1</v>
       </c>
-      <c r="C206" s="5">
+      <c r="D206" s="5">
         <v>6460.78</v>
       </c>
-      <c r="D206" s="5">
+      <c r="E206" s="5">
         <v>3741.48</v>
       </c>
-      <c r="E206" s="2">
+      <c r="F206" s="5">
         <v>304</v>
       </c>
-      <c r="F206" s="7">
+      <c r="G206" s="5">
         <v>16947.531448999995</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207" t="s">
         <v>203</v>
       </c>
-      <c r="B207" s="5">
+      <c r="C207" s="5">
         <v>54141</v>
       </c>
-      <c r="C207" s="5">
+      <c r="D207" s="5">
         <v>18583.5</v>
       </c>
-      <c r="D207" s="5">
+      <c r="E207" s="5">
         <v>14759.6</v>
       </c>
-      <c r="E207" s="2">
+      <c r="F207" s="5">
         <v>1036</v>
       </c>
-      <c r="F207" s="7">
+      <c r="G207" s="5">
         <v>58020.507783999929</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>262</v>
+      </c>
+      <c r="B208" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="5">
+      <c r="C208" s="5">
         <v>23008.799999999999</v>
       </c>
-      <c r="C208" s="5">
+      <c r="D208" s="5">
         <v>8396.0499999999993</v>
       </c>
-      <c r="D208" s="5">
+      <c r="E208" s="5">
         <v>5913.07</v>
       </c>
-      <c r="E208" s="2">
+      <c r="F208" s="5">
         <v>520</v>
       </c>
-      <c r="F208" s="7">
+      <c r="G208" s="5">
         <v>30219.618571000039</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>262</v>
+      </c>
+      <c r="B209" t="s">
         <v>205</v>
       </c>
-      <c r="B209" s="5">
+      <c r="C209" s="5">
         <v>31127.3</v>
       </c>
-      <c r="C209" s="5">
+      <c r="D209" s="5">
         <v>12468.2</v>
       </c>
-      <c r="D209" s="5">
+      <c r="E209" s="5">
         <v>7331.98</v>
       </c>
-      <c r="E209" s="2">
+      <c r="F209" s="5">
         <v>765</v>
       </c>
-      <c r="F209" s="7">
+      <c r="G209" s="5">
         <v>42630.40016499997</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>262</v>
+      </c>
+      <c r="B210" t="s">
         <v>206</v>
       </c>
-      <c r="B210" s="5">
+      <c r="C210" s="5">
         <v>34829.800000000003</v>
       </c>
-      <c r="C210" s="5">
+      <c r="D210" s="5">
         <v>13240.8</v>
       </c>
-      <c r="D210" s="5">
+      <c r="E210" s="5">
         <v>8554.65</v>
       </c>
-      <c r="E210" s="2">
+      <c r="F210" s="5">
         <v>711</v>
       </c>
-      <c r="F210" s="7">
+      <c r="G210" s="5">
         <v>41673.214780999981</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>262</v>
+      </c>
+      <c r="B211" t="s">
         <v>207</v>
       </c>
-      <c r="B211" s="5">
+      <c r="C211" s="5">
         <v>44839.9</v>
       </c>
-      <c r="C211" s="5">
+      <c r="D211" s="5">
         <v>15635</v>
       </c>
-      <c r="D211" s="5">
+      <c r="E211" s="5">
         <v>12247.2</v>
       </c>
-      <c r="E211" s="2">
+      <c r="F211" s="5">
         <v>917</v>
       </c>
-      <c r="F211" s="7">
+      <c r="G211" s="5">
         <v>51253.019620299987</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>262</v>
+      </c>
+      <c r="B212" t="s">
         <v>208</v>
       </c>
-      <c r="B212" s="5">
+      <c r="C212" s="5">
         <v>28838</v>
       </c>
-      <c r="C212" s="5">
+      <c r="D212" s="5">
         <v>9933.8700000000008</v>
       </c>
-      <c r="D212" s="5">
+      <c r="E212" s="5">
         <v>8174.86</v>
       </c>
-      <c r="E212" s="2">
+      <c r="F212" s="5">
         <v>549</v>
       </c>
-      <c r="F212" s="7">
+      <c r="G212" s="5">
         <v>29282.284593500019</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>262</v>
+      </c>
+      <c r="B213" t="s">
         <v>209</v>
       </c>
-      <c r="B213" s="5">
+      <c r="C213" s="5">
         <v>25542.3</v>
       </c>
-      <c r="C213" s="5">
+      <c r="D213" s="5">
         <v>9883.19</v>
       </c>
-      <c r="D213" s="5">
+      <c r="E213" s="5">
         <v>6106.23</v>
       </c>
-      <c r="E213" s="2">
+      <c r="F213" s="5">
         <v>587</v>
       </c>
-      <c r="F213" s="7">
+      <c r="G213" s="5">
         <v>35904.378373000014</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>262</v>
+      </c>
+      <c r="B214" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="5">
+      <c r="C214" s="5">
         <v>35833.4</v>
       </c>
-      <c r="C214" s="5">
+      <c r="D214" s="5">
         <v>14359</v>
       </c>
-      <c r="D214" s="5">
+      <c r="E214" s="5">
         <v>8276.26</v>
       </c>
-      <c r="E214" s="2">
+      <c r="F214" s="5">
         <v>939</v>
       </c>
-      <c r="F214" s="7">
+      <c r="G214" s="5">
         <v>54046.477851000047</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>262</v>
+      </c>
+      <c r="B215" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="5">
+      <c r="C215" s="5">
         <v>44301.7</v>
       </c>
-      <c r="C215" s="5">
+      <c r="D215" s="5">
         <v>14999.4</v>
       </c>
-      <c r="D215" s="5">
+      <c r="E215" s="5">
         <v>12257.5</v>
       </c>
-      <c r="E215" s="2">
+      <c r="F215" s="5">
         <v>810</v>
       </c>
-      <c r="F215" s="7">
+      <c r="G215" s="5">
         <v>42773.671616000065</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216" t="s">
         <v>212</v>
       </c>
-      <c r="B216" s="5">
+      <c r="C216" s="5">
         <v>40322.5</v>
       </c>
-      <c r="C216" s="5">
+      <c r="D216" s="5">
         <v>16427.900000000001</v>
       </c>
-      <c r="D216" s="5">
+      <c r="E216" s="5">
         <v>9078.6299999999992</v>
       </c>
-      <c r="E216" s="2">
+      <c r="F216" s="5">
         <v>941</v>
       </c>
-      <c r="F216" s="7">
+      <c r="G216" s="5">
         <v>51950.046098599996</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" t="s">
         <v>213</v>
       </c>
-      <c r="B217" s="5">
+      <c r="C217" s="5">
         <v>22791.4</v>
       </c>
-      <c r="C217" s="5">
+      <c r="D217" s="5">
         <v>8779.24</v>
       </c>
-      <c r="D217" s="5">
+      <c r="E217" s="5">
         <v>5604.06</v>
       </c>
-      <c r="E217" s="2">
+      <c r="F217" s="5">
         <v>386</v>
       </c>
-      <c r="F217" s="7">
+      <c r="G217" s="5">
         <v>20825.033415999995</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>262</v>
+      </c>
+      <c r="B218" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="5">
+      <c r="C218" s="5">
         <v>29986.400000000001</v>
       </c>
-      <c r="C218" s="5">
+      <c r="D218" s="5">
         <v>15484</v>
       </c>
-      <c r="D218" s="5">
+      <c r="E218" s="5">
         <v>4975.33</v>
       </c>
-      <c r="E218" s="2">
+      <c r="F218" s="5">
         <v>864</v>
       </c>
-      <c r="F218" s="7">
+      <c r="G218" s="5">
         <v>44602.461408999872</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>262</v>
+      </c>
+      <c r="B219" t="s">
         <v>215</v>
       </c>
-      <c r="B219" s="5">
+      <c r="C219" s="5">
         <v>36259.5</v>
       </c>
-      <c r="C219" s="5">
+      <c r="D219" s="5">
         <v>14901.3</v>
       </c>
-      <c r="D219" s="5">
+      <c r="E219" s="5">
         <v>8181.37</v>
       </c>
-      <c r="E219" s="2">
+      <c r="F219" s="5">
         <v>784</v>
       </c>
-      <c r="F219" s="7">
+      <c r="G219" s="5">
         <v>41020.388355699914</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>262</v>
+      </c>
+      <c r="B220" t="s">
         <v>216</v>
       </c>
-      <c r="B220" s="5">
+      <c r="C220" s="5">
         <v>15348.4</v>
       </c>
-      <c r="C220" s="5">
+      <c r="D220" s="5">
         <v>6887.03</v>
       </c>
-      <c r="D220" s="5">
+      <c r="E220" s="5">
         <v>3065.98</v>
       </c>
-      <c r="E220" s="2">
+      <c r="F220" s="5">
         <v>391</v>
       </c>
-      <c r="F220" s="7">
+      <c r="G220" s="5">
         <v>22072.295252000022</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>262</v>
+      </c>
+      <c r="B221" t="s">
         <v>217</v>
       </c>
-      <c r="B221" s="5">
+      <c r="C221" s="5">
         <v>27173.8</v>
       </c>
-      <c r="C221" s="5">
+      <c r="D221" s="5">
         <v>9749.1299999999992</v>
       </c>
-      <c r="D221" s="5">
+      <c r="E221" s="5">
         <v>7189.47</v>
       </c>
-      <c r="E221" s="2">
+      <c r="F221" s="5">
         <v>523</v>
       </c>
-      <c r="F221" s="7">
+      <c r="G221" s="5">
         <v>27554.725491999998</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222" t="s">
         <v>218</v>
       </c>
-      <c r="B222" s="5">
+      <c r="C222" s="5">
         <v>17971.900000000001</v>
       </c>
-      <c r="C222" s="5">
+      <c r="D222" s="5">
         <v>6207.1</v>
       </c>
-      <c r="D222" s="5">
+      <c r="E222" s="5">
         <v>4901.13</v>
       </c>
-      <c r="E222" s="2">
+      <c r="F222" s="5">
         <v>383</v>
       </c>
-      <c r="F222" s="7">
+      <c r="G222" s="5">
         <v>20010.450242000003</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223" t="s">
         <v>219</v>
       </c>
-      <c r="B223" s="5">
+      <c r="C223" s="5">
         <v>42357.8</v>
       </c>
-      <c r="C223" s="5">
+      <c r="D223" s="5">
         <v>14579.8</v>
       </c>
-      <c r="D223" s="5">
+      <c r="E223" s="5">
         <v>11650.3</v>
       </c>
-      <c r="E223" s="2">
+      <c r="F223" s="5">
         <v>795</v>
       </c>
-      <c r="F223" s="7">
+      <c r="G223" s="5">
         <v>37870.7215603</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="3" t="s">
+    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="6">
+      <c r="C224" s="6">
         <v>60851.9</v>
       </c>
-      <c r="C224" s="6">
+      <c r="D224" s="6">
         <v>21411.1</v>
       </c>
-      <c r="D224" s="6">
+      <c r="E224" s="6">
         <v>15988.2</v>
       </c>
-      <c r="E224" s="4">
+      <c r="F224" s="6">
         <v>1342</v>
       </c>
-      <c r="F224" s="8">
+      <c r="G224" s="6">
         <v>68415.723105999932</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>262</v>
+      </c>
+      <c r="B225" t="s">
         <v>221</v>
       </c>
-      <c r="B225" s="5">
+      <c r="C225" s="5">
         <v>35849.199999999997</v>
       </c>
-      <c r="C225" s="5">
+      <c r="D225" s="5">
         <v>14528.4</v>
       </c>
-      <c r="D225" s="5">
+      <c r="E225" s="5">
         <v>8179.16</v>
       </c>
-      <c r="E225" s="2">
+      <c r="F225" s="5">
         <v>813</v>
       </c>
-      <c r="F225" s="7">
+      <c r="G225" s="5">
         <v>46007.571995000006</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>262</v>
+      </c>
+      <c r="B226" t="s">
         <v>222</v>
       </c>
-      <c r="B226" s="5">
+      <c r="C226" s="5">
         <v>25488.5</v>
       </c>
-      <c r="C226" s="5">
+      <c r="D226" s="5">
         <v>9479.01</v>
       </c>
-      <c r="D226" s="5">
+      <c r="E226" s="5">
         <v>6462.58</v>
       </c>
-      <c r="E226" s="2">
+      <c r="F226" s="5">
         <v>521</v>
       </c>
-      <c r="F226" s="7">
+      <c r="G226" s="5">
         <v>28579.348239000021</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>262</v>
+      </c>
+      <c r="B227" t="s">
         <v>223</v>
       </c>
-      <c r="B227" s="5">
+      <c r="C227" s="5">
         <v>37728</v>
       </c>
-      <c r="C227" s="5">
+      <c r="D227" s="5">
         <v>13028.2</v>
       </c>
-      <c r="D227" s="5">
+      <c r="E227" s="5">
         <v>10421</v>
       </c>
-      <c r="E227" s="2">
+      <c r="F227" s="5">
         <v>676</v>
       </c>
-      <c r="F227" s="7">
+      <c r="G227" s="5">
         <v>36552.907583999964</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>262</v>
+      </c>
+      <c r="B228" t="s">
         <v>224</v>
       </c>
-      <c r="B228" s="5">
+      <c r="C228" s="5">
         <v>35332.400000000001</v>
       </c>
-      <c r="C228" s="5">
+      <c r="D228" s="5">
         <v>13885.9</v>
       </c>
-      <c r="D228" s="5">
+      <c r="E228" s="5">
         <v>8506.31</v>
       </c>
-      <c r="E228" s="2">
+      <c r="F228" s="5">
         <v>1036</v>
       </c>
-      <c r="F228" s="7">
+      <c r="G228" s="5">
         <v>62160.991679999912</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>262</v>
+      </c>
+      <c r="B229" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="5">
+      <c r="C229" s="5">
         <v>16531.5</v>
       </c>
-      <c r="C229" s="5">
+      <c r="D229" s="5">
         <v>6082.7</v>
       </c>
-      <c r="D229" s="5">
+      <c r="E229" s="5">
         <v>4182.91</v>
       </c>
-      <c r="E229" s="2">
+      <c r="F229" s="5">
         <v>276</v>
       </c>
-      <c r="F229" s="7">
+      <c r="G229" s="5">
         <v>13522.912074000002</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>262</v>
+      </c>
+      <c r="B230" t="s">
         <v>226</v>
       </c>
-      <c r="B230" s="5">
+      <c r="C230" s="5">
         <v>86055.7</v>
       </c>
-      <c r="C230" s="5">
+      <c r="D230" s="5">
         <v>31488.3</v>
       </c>
-      <c r="D230" s="5">
+      <c r="E230" s="5">
         <v>22168.1</v>
       </c>
-      <c r="E230" s="2">
+      <c r="F230" s="5">
         <v>2264</v>
       </c>
-      <c r="F230" s="7">
+      <c r="G230" s="5">
         <v>62705.011036500022</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>262</v>
+      </c>
+      <c r="B231" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="5">
+      <c r="C231" s="5">
         <v>40398.1</v>
       </c>
-      <c r="C231" s="5">
+      <c r="D231" s="5">
         <v>15371.7</v>
       </c>
-      <c r="D231" s="5">
+      <c r="E231" s="5">
         <v>9843.94</v>
       </c>
-      <c r="E231" s="2">
+      <c r="F231" s="5">
         <v>1137</v>
       </c>
-      <c r="F231" s="7">
+      <c r="G231" s="5">
         <v>68638.103165000211</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>262</v>
+      </c>
+      <c r="B232" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="5">
+      <c r="C232" s="5">
         <v>42146.5</v>
       </c>
-      <c r="C232" s="5">
+      <c r="D232" s="5">
         <v>16598.400000000001</v>
       </c>
-      <c r="D232" s="5">
+      <c r="E232" s="5">
         <v>9882.16</v>
       </c>
-      <c r="E232" s="2">
+      <c r="F232" s="5">
         <v>1212</v>
       </c>
-      <c r="F232" s="7">
+      <c r="G232" s="5">
         <v>76346.118259000083</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>262</v>
+      </c>
+      <c r="B233" t="s">
         <v>229</v>
       </c>
-      <c r="B233" s="5">
+      <c r="C233" s="5">
         <v>31684.3</v>
       </c>
-      <c r="C233" s="5">
+      <c r="D233" s="5">
         <v>12824.5</v>
       </c>
-      <c r="D233" s="5">
+      <c r="E233" s="5">
         <v>7274.14</v>
       </c>
-      <c r="E233" s="2">
+      <c r="F233" s="5">
         <v>766</v>
       </c>
-      <c r="F233" s="7">
+      <c r="G233" s="5">
         <v>46465.82569299997</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>262</v>
+      </c>
+      <c r="B234" t="s">
         <v>230</v>
       </c>
-      <c r="B234" s="5">
+      <c r="C234" s="5">
         <v>20561</v>
       </c>
-      <c r="C234" s="5">
+      <c r="D234" s="5">
         <v>8629.52</v>
       </c>
-      <c r="D234" s="5">
+      <c r="E234" s="5">
         <v>4474.13</v>
       </c>
-      <c r="E234" s="2">
+      <c r="F234" s="5">
         <v>445</v>
       </c>
-      <c r="F234" s="7">
+      <c r="G234" s="5">
         <v>25846.164582000019</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>262</v>
+      </c>
+      <c r="B235" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="5">
+      <c r="C235" s="5">
         <v>39208.800000000003</v>
       </c>
-      <c r="C235" s="5">
+      <c r="D235" s="5">
         <v>12522</v>
       </c>
-      <c r="D235" s="5">
+      <c r="E235" s="5">
         <v>11499.3</v>
       </c>
-      <c r="E235" s="2">
+      <c r="F235" s="5">
         <v>738</v>
       </c>
-      <c r="F235" s="7">
+      <c r="G235" s="5">
         <v>41811.401943999939</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>262</v>
+      </c>
+      <c r="B236" t="s">
         <v>232</v>
       </c>
-      <c r="B236" s="5">
+      <c r="C236" s="5">
         <v>25996.7</v>
       </c>
-      <c r="C236" s="5">
+      <c r="D236" s="5">
         <v>8163.89</v>
       </c>
-      <c r="D236" s="5">
+      <c r="E236" s="5">
         <v>7629.26</v>
       </c>
-      <c r="E236" s="2">
+      <c r="F236" s="5">
         <v>472</v>
       </c>
-      <c r="F236" s="7">
+      <c r="G236" s="5">
         <v>26402.751604499997</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="5">
+      <c r="C237" s="5">
         <v>24809.9</v>
       </c>
-      <c r="C237" s="5">
+      <c r="D237" s="5">
         <v>8983.64</v>
       </c>
-      <c r="D237" s="5">
+      <c r="E237" s="5">
         <v>6489.14</v>
       </c>
-      <c r="E237" s="2">
+      <c r="F237" s="5">
         <v>464</v>
       </c>
-      <c r="F237" s="7">
+      <c r="G237" s="5">
         <v>27048.232333999993</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>262</v>
+      </c>
+      <c r="B238" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="5">
+      <c r="C238" s="5">
         <v>21413.3</v>
       </c>
-      <c r="C238" s="5">
+      <c r="D238" s="5">
         <v>7186.98</v>
       </c>
-      <c r="D238" s="5">
+      <c r="E238" s="5">
         <v>5948.36</v>
       </c>
-      <c r="E238" s="2">
+      <c r="F238" s="5">
         <v>446</v>
       </c>
-      <c r="F238" s="7">
+      <c r="G238" s="5">
         <v>23536.021755999984</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>262</v>
+      </c>
+      <c r="B239" t="s">
         <v>235</v>
       </c>
-      <c r="B239" s="5">
+      <c r="C239" s="5">
         <v>58118.400000000001</v>
       </c>
-      <c r="C239" s="5">
+      <c r="D239" s="5">
         <v>19117.900000000001</v>
       </c>
-      <c r="D239" s="5">
+      <c r="E239" s="5">
         <v>17009.8</v>
       </c>
-      <c r="E239" s="2">
+      <c r="F239" s="5">
         <v>1087</v>
       </c>
-      <c r="F239" s="7">
+      <c r="G239" s="5">
         <v>60697.166624600046</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>262</v>
+      </c>
+      <c r="B240" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="5">
+      <c r="C240" s="5">
         <v>42242.1</v>
       </c>
-      <c r="C240" s="5">
+      <c r="D240" s="5">
         <v>16953.599999999999</v>
       </c>
-      <c r="D240" s="5">
+      <c r="E240" s="5">
         <v>9775.89</v>
       </c>
-      <c r="E240" s="2">
+      <c r="F240" s="5">
         <v>1008</v>
       </c>
-      <c r="F240" s="7">
+      <c r="G240" s="5">
         <v>59737.899550800066</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>262</v>
+      </c>
+      <c r="B241" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="5">
+      <c r="C241" s="5">
         <v>39459.300000000003</v>
       </c>
-      <c r="C241" s="5">
+      <c r="D241" s="5">
         <v>15782.7</v>
       </c>
-      <c r="D241" s="5">
+      <c r="E241" s="5">
         <v>9161.2800000000007</v>
       </c>
-      <c r="E241" s="2">
+      <c r="F241" s="5">
         <v>970</v>
       </c>
-      <c r="F241" s="7">
+      <c r="G241" s="5">
         <v>54866.181939999973</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>262</v>
+      </c>
+      <c r="B242" t="s">
         <v>238</v>
       </c>
-      <c r="B242" s="5">
+      <c r="C242" s="5">
         <v>19120.099999999999</v>
       </c>
-      <c r="C242" s="5">
+      <c r="D242" s="5">
         <v>7687.39</v>
       </c>
-      <c r="D242" s="5">
+      <c r="E242" s="5">
         <v>4364.5600000000004</v>
       </c>
-      <c r="E242" s="2">
+      <c r="F242" s="5">
         <v>428</v>
       </c>
-      <c r="F242" s="7">
+      <c r="G242" s="5">
         <v>25792.034221000027</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243" t="s">
         <v>239</v>
       </c>
-      <c r="B243" s="5">
+      <c r="C243" s="5">
         <v>30508.7</v>
       </c>
-      <c r="C243" s="5">
+      <c r="D243" s="5">
         <v>12119.8</v>
       </c>
-      <c r="D243" s="5">
+      <c r="E243" s="5">
         <v>7060.39</v>
       </c>
-      <c r="E243" s="2">
+      <c r="F243" s="5">
         <v>701</v>
       </c>
-      <c r="F243" s="7">
+      <c r="G243" s="5">
         <v>38207.878221999992</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>262</v>
+      </c>
+      <c r="B244" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="5">
+      <c r="C244" s="5">
         <v>28859.3</v>
       </c>
-      <c r="C244" s="5">
+      <c r="D244" s="5">
         <v>12873.2</v>
       </c>
-      <c r="D244" s="5">
+      <c r="E244" s="5">
         <v>5702.79</v>
       </c>
-      <c r="E244" s="2">
+      <c r="F244" s="5">
         <v>820</v>
       </c>
-      <c r="F244" s="7">
+      <c r="G244" s="5">
         <v>47061.678981000121</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>262</v>
+      </c>
+      <c r="B245" t="s">
         <v>241</v>
       </c>
-      <c r="B245" s="5">
+      <c r="C245" s="5">
         <v>45057.8</v>
       </c>
-      <c r="C245" s="5">
+      <c r="D245" s="5">
         <v>14356.9</v>
       </c>
-      <c r="D245" s="5">
+      <c r="E245" s="5">
         <v>13626.1</v>
       </c>
-      <c r="E245" s="2">
+      <c r="F245" s="5">
         <v>1035</v>
       </c>
-      <c r="F245" s="7">
+      <c r="G245" s="5">
         <v>56589.282591299983</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="5">
+      <c r="C246" s="5">
         <v>87369.8</v>
       </c>
-      <c r="C246" s="5">
+      <c r="D246" s="5">
         <v>29580.400000000001</v>
       </c>
-      <c r="D246" s="5">
+      <c r="E246" s="5">
         <v>24251.9</v>
       </c>
-      <c r="E246" s="2">
+      <c r="F246" s="5">
         <v>2056</v>
       </c>
-      <c r="F246" s="7">
+      <c r="G246" s="5">
         <v>63787.708169300058</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>262</v>
+      </c>
+      <c r="B247" t="s">
         <v>243</v>
       </c>
-      <c r="B247" s="5">
+      <c r="C247" s="5">
         <v>54405.2</v>
       </c>
-      <c r="C247" s="5">
+      <c r="D247" s="5">
         <v>18602.599999999999</v>
       </c>
-      <c r="D247" s="5">
+      <c r="E247" s="5">
         <v>14989.4</v>
       </c>
-      <c r="E247" s="2">
+      <c r="F247" s="5">
         <v>1296</v>
       </c>
-      <c r="F247" s="7">
+      <c r="G247" s="5">
         <v>71269.211713000026</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>262</v>
+      </c>
+      <c r="B248" t="s">
         <v>244</v>
       </c>
-      <c r="B248" s="5">
+      <c r="C248" s="5">
         <v>35808.199999999997</v>
       </c>
-      <c r="C248" s="5">
+      <c r="D248" s="5">
         <v>13111</v>
       </c>
-      <c r="D248" s="5">
+      <c r="E248" s="5">
         <v>8901.3799999999992</v>
       </c>
-      <c r="E248" s="2">
+      <c r="F248" s="5">
         <v>858</v>
       </c>
-      <c r="F248" s="7">
+      <c r="G248" s="5">
         <v>49958.490934000016</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>262</v>
+      </c>
+      <c r="B249" t="s">
         <v>245</v>
       </c>
-      <c r="B249" s="5">
+      <c r="C249" s="5">
         <v>36183.5</v>
       </c>
-      <c r="C249" s="5">
+      <c r="D249" s="5">
         <v>10533.3</v>
       </c>
-      <c r="D249" s="5">
+      <c r="E249" s="5">
         <v>12069.9</v>
       </c>
-      <c r="E249" s="2">
+      <c r="F249" s="5">
         <v>671</v>
       </c>
-      <c r="F249" s="7">
+      <c r="G249" s="5">
         <v>33278.835616000026</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" t="s">
         <v>246</v>
       </c>
-      <c r="B250" s="5">
+      <c r="C250" s="5">
         <v>37271.4</v>
       </c>
-      <c r="C250" s="5">
+      <c r="D250" s="5">
         <v>14383</v>
       </c>
-      <c r="D250" s="5">
+      <c r="E250" s="5">
         <v>8946.39</v>
       </c>
-      <c r="E250" s="2">
+      <c r="F250" s="5">
         <v>1017</v>
       </c>
-      <c r="F250" s="7">
+      <c r="G250" s="5">
         <v>58575.632935999995</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251" t="s">
         <v>247</v>
       </c>
-      <c r="B251" s="5">
+      <c r="C251" s="5">
         <v>44155.9</v>
       </c>
-      <c r="C251" s="5">
+      <c r="D251" s="5">
         <v>18777.3</v>
       </c>
-      <c r="D251" s="5">
+      <c r="E251" s="5">
         <v>9401.9599999999991</v>
       </c>
-      <c r="E251" s="2">
+      <c r="F251" s="5">
         <v>1323</v>
       </c>
-      <c r="F251" s="7">
+      <c r="G251" s="5">
         <v>72142.282425300073</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>262</v>
+      </c>
+      <c r="B252" t="s">
         <v>248</v>
       </c>
-      <c r="B252" s="5">
+      <c r="C252" s="5">
         <v>49857.3</v>
       </c>
-      <c r="C252" s="5">
+      <c r="D252" s="5">
         <v>21369.8</v>
       </c>
-      <c r="D252" s="5">
+      <c r="E252" s="5">
         <v>10408.6</v>
       </c>
-      <c r="E252" s="2">
+      <c r="F252" s="5">
         <v>1463</v>
       </c>
-      <c r="F252" s="7">
+      <c r="G252" s="5">
         <v>73354.28465229999</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>262</v>
+      </c>
+      <c r="B253" t="s">
         <v>249</v>
       </c>
-      <c r="B253" s="5">
+      <c r="C253" s="5">
         <v>47370.2</v>
       </c>
-      <c r="C253" s="5">
+      <c r="D253" s="5">
         <v>17126.3</v>
       </c>
-      <c r="D253" s="5">
+      <c r="E253" s="5">
         <v>12474.5</v>
       </c>
-      <c r="E253" s="2">
+      <c r="F253" s="5">
         <v>1047</v>
       </c>
-      <c r="F253" s="7">
+      <c r="G253" s="5">
         <v>57659.651555000011</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" t="s">
         <v>250</v>
       </c>
-      <c r="B254" s="5">
+      <c r="C254" s="5">
         <v>27847.599999999999</v>
       </c>
-      <c r="C254" s="5">
+      <c r="D254" s="5">
         <v>9869.07</v>
       </c>
-      <c r="D254" s="5">
+      <c r="E254" s="5">
         <v>7543.91</v>
       </c>
-      <c r="E254" s="2">
+      <c r="F254" s="5">
         <v>592</v>
       </c>
-      <c r="F254" s="7">
+      <c r="G254" s="5">
         <v>32293.159831000012</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" t="s">
         <v>251</v>
       </c>
-      <c r="B255" s="5">
+      <c r="C255" s="5">
         <v>42539.1</v>
       </c>
-      <c r="C255" s="5">
+      <c r="D255" s="5">
         <v>17012.5</v>
       </c>
-      <c r="D255" s="5">
+      <c r="E255" s="5">
         <v>9824.16</v>
       </c>
-      <c r="E255" s="2">
+      <c r="F255" s="5">
         <v>1106</v>
       </c>
-      <c r="F255" s="7">
+      <c r="G255" s="5">
         <v>61154.89756400005</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256" t="s">
         <v>252</v>
       </c>
-      <c r="B256" s="5">
+      <c r="C256" s="5">
         <v>40186.9</v>
       </c>
-      <c r="C256" s="5">
+      <c r="D256" s="5">
         <v>14366.7</v>
       </c>
-      <c r="D256" s="5">
+      <c r="E256" s="5">
         <v>10181</v>
       </c>
-      <c r="E256" s="2">
+      <c r="F256" s="5">
         <v>952</v>
       </c>
-      <c r="F256" s="7">
+      <c r="G256" s="5">
         <v>52587.258671999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/data/MBP.xlsx
+++ b/data/MBP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\LT-AoP-22\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\R\LT-AoP-22-Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0676ED-6378-4CA7-9187-632D95EFF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC07D8-76F4-4D8C-B412-94FB13FD27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mbp" sheetId="2" r:id="rId1"/>
@@ -1190,20 +1190,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="L255" sqref="L255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.61328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>261</v>
       </c>
@@ -1227,7 +1229,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>26855.868709999984</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>36236.316373000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>33246.669505999969</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>30536.491911000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>47446.570896199941</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>42413.079165299954</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>48415.338636</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>41249.949720299941</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>262</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>34805.734646999983</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>41588.384261000057</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>52494.512606000062</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>44302.837843000052</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>41415.388175999979</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>41761.405426999983</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>22389.059843999967</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>15884.823321999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>25974.084919999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>31172.677027000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>35974.204694999964</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>39525.247889999984</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>30177.466952600022</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>262</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>27951.624693000012</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>30029.891168499962</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>29419.594360000006</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>262</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>42561.253270999943</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>262</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>28361.909360000016</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -1848,7 +1850,7 @@
         <v>26054.600760999991</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>51499.48455700004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -1902,7 +1904,7 @@
         <v>59647.87574999989</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>69671.606896999961</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -1938,7 +1940,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>262</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>49487.197367000124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>42932.64872969994</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>262</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>33897.969448000011</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>262</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>262</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>28861.566094500013</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>17483.42532100001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>262</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>47783.484962999959</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>262</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>262</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>22740.860398999987</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>262</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>26209.423306000019</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>262</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>29998.117587999972</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>262</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>13098.701186999993</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>15018.175139999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>262</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>55214.510262000062</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>262</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>262</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>38713.007128999969</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>262</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>54228.661629000038</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>262</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>26354.343889399988</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>66967.78593579997</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>46319.388708999992</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>262</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>42705.423975999969</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>262</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>15104.604628000006</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>262</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>51922.182475000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>262</v>
       </c>
@@ -2453,7 +2455,7 @@
         <v>47079.948170400028</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>262</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>49880.626503</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>45599.339338899939</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>262</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>67450.635794000089</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>262</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>73471.918864000123</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>262</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>65148.948371999992</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>58336.977065999985</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>262</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>51677.557368000016</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>262</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>46942.248373000031</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>262</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>40611.322574999969</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>32375.80037600005</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>262</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>33323.550794999966</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>262</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>52555.875265999937</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>31460.067431000014</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>32982.604945000021</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>31410.139293300024</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>35341.681830999943</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>60977.751716999977</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>50139.561406999957</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>34148.020262999977</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>262</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>35095.486531000024</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>71738.142483600022</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>50128.351453999989</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -2982,7 +2984,7 @@
         <v>35269.404827299957</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>262</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>23802.311727999964</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>36313.781963999973</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>262</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>35306.395338299953</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>30687.089936999964</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>39869.904093000056</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>36198.320382300022</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>24581.76138099996</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>47855.965265499959</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>39880.724252000015</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>262</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>57521.165088000016</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>262</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>35745.570995999973</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>262</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>72140.029592999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>51125.842587000079</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>66416.975373999943</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>46699.111703299939</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>17835.970864999996</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>262</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>34174.808282899969</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>50833.395862999998</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>262</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>31411.362429000004</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>31920.204148000052</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>262</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>18908.048459999995</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>41006.347018000008</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>30328.250261300003</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>262</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>26464.918454999977</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>262</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>37092.005063000019</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>27238.630400000016</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>262</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>58803.73888599997</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>262</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>33152.042082000036</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>32742.836483999996</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>38979.305495000037</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>262</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>34589.818702000048</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -3726,7 +3728,7 @@
         <v>20068.106400999975</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>262</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>23946.710903000014</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>32839.324934000018</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>39327.083586500026</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>39814.832854999971</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>262</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>48231.096277900077</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>262</v>
       </c>
@@ -3864,7 +3866,7 @@
         <v>20414.933852999988</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>262</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>46791.217666999881</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>18587.40689599999</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>36900.211931699967</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>262</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>28509.020528000015</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>28358.728157000023</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>49305.051588999988</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>262</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>47617.567492999937</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>23174.335484400002</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>51691.461505999956</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>262</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>74252.140289299976</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>262</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>58539.165246000084</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>51090.962175000059</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>70184.967247999986</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>70325.928039499966</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>66453.745005999997</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>66836.609006499872</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>60924.483507999939</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>262</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>262</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>68367.176665999956</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>262</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>77840.528497000181</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>262</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>78828.904265299847</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>262</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>262</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>21549.342100000009</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>262</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>16870.970648999988</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>262</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>23560.250986000032</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>16248.537338999995</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>23889.291300699992</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>262</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>18700.153312999984</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>14803.396081000006</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>262</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>16983.844487000006</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>262</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>52466.281798000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -4586,7 +4588,7 @@
         <v>68282.789418699991</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>262</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>262</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>17165.98502</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -4648,7 +4650,7 @@
         <v>37733.163335299985</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>262</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>262</v>
       </c>
@@ -4669,7 +4671,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>262</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>63143.517413999907</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>262</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>61608.056062299991</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>262</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>44717.73671200002</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>76477.072908000046</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>37629.551669</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>28793.63652630003</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>26331.084063699971</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>262</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>40366.639767999972</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>32808.833446999968</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>262</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>47757.485666</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>262</v>
       </c>
@@ -4922,7 +4924,7 @@
         <v>27015.48869100001</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>262</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>31854.632514700017</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>262</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>68132.192042299939</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>262</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>38708.725029500005</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>262</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>48908.07160500007</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>59453.078786999904</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>262</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>54923.321220999918</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>262</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>22587.152666300008</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>262</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>36553.220813999971</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>262</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>36339.247396000021</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>68214.208321999802</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>262</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>23583.758151000031</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>262</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>31964.300209000045</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>262</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>73044.647955999913</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>262</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>51693.983547000098</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>262</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>42698.36343499997</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>262</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>63447.958487000076</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>262</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>28273.919575999975</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>262</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>61477.377808999991</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>262</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>68135.713886999962</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>262</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>70430.819512999893</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>262</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>45292.045241000036</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>262</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>22727.8274423</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>262</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>20823.100282299998</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>262</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>71567.174660000019</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>34306.547029000008</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>262</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>43854.571700999972</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>262</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>32999.012674999991</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>262</v>
       </c>
@@ -5566,7 +5568,7 @@
         <v>66856.267311000091</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>262</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>70959.576349999988</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>262</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>19321.060838300007</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>63516.994559000064</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>262</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>26133.694736000001</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>262</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>26670.627858</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>262</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>69290.364170999965</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>262</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>16947.531448999995</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>262</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>58020.507783999929</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>262</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>30219.618571000039</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>42630.40016499997</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>262</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>41673.214780999981</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>262</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>51253.019620299987</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>262</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>29282.284593500019</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>262</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>35904.378373000014</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>262</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>54046.477851000047</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>262</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>42773.671616000065</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>262</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>51950.046098599996</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>20825.033415999995</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>262</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>44602.461408999872</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>41020.388355699914</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>262</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>22072.295252000022</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>262</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>27554.725491999998</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>20010.450242000003</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>262</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>37870.7215603</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>262</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>68415.723105999932</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>46007.571995000006</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>28579.348239000021</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>262</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>36552.907583999964</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>62160.991679999912</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>13522.912074000002</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>262</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>62705.011036500022</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>262</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>68638.103165000211</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>262</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>76346.118259000083</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>46465.82569299997</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>262</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>25846.164582000019</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>262</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>41811.401943999939</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>26402.751604499997</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>262</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>27048.232333999993</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>23536.021755999984</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>60697.166624600046</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>59737.899550800066</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>54866.181939999973</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>25792.034221000027</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>38207.878221999992</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>47061.678981000121</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>56589.282591299983</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>63787.708169300058</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>71269.211713000026</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>49958.490934000016</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>262</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>33278.835616000026</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>58575.632935999995</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>262</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>72142.282425300073</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>262</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>73354.28465229999</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>262</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>57659.651555000011</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>262</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>32293.159831000012</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>61154.89756400005</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>262</v>
       </c>
